--- a/observations/orbit_plans/mtp059/nomad_mtp059_plan.xlsx
+++ b/observations/orbit_plans/mtp059/nomad_mtp059_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="615">
   <si>
     <t>#orbitType</t>
   </si>
@@ -55,1593 +55,1584 @@
     <t>comment</t>
   </si>
   <si>
+    <t>H2O CO 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2022 OCT 01 16:33:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.2hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2022 OCT 01 18:30:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2022 OCT 01 20:28:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>H2O 2SUBD 01</t>
+  </si>
+  <si>
+    <t>2022 OCT 01 22:26:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 02 00:24:15</t>
+  </si>
+  <si>
+    <t>2022 OCT 02 02:22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2022 OCT 02 04:19:38</t>
+  </si>
+  <si>
+    <t>Nominal 6SUBD #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 02 06:17:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2022 OCT 02 08:14:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2022 OCT 02 10:12:36</t>
+  </si>
+  <si>
+    <t>2022 OCT 02 12:10:19</t>
+  </si>
+  <si>
+    <t>2022 OCT 02 14:07:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
+  </si>
+  <si>
     <t>H2O CO 3SUBD #2</t>
   </si>
   <si>
-    <t>2022 OCT 01 16:33:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.2hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2022 OCT 01 18:30:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2022 OCT 01 20:28:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=81; </t>
+    <t>2022 OCT 02 16:05:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2022 OCT 02 18:03:02</t>
+  </si>
+  <si>
+    <t>2022 OCT 02 20:00:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2022 OCT 02 21:58:06</t>
+  </si>
+  <si>
+    <t>2022 OCT 02 23:55:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2022 OCT 03 01:53:20</t>
+  </si>
+  <si>
+    <t>2022 OCT 03 03:50:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.5hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>CH4 3SUBD 01</t>
+  </si>
+  <si>
+    <t>2022 OCT 03 05:48:01</t>
+  </si>
+  <si>
+    <t>2022 OCT 03 07:45:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.4hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2022 OCT 03 09:42:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.3hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 03 11:40:09</t>
+  </si>
+  <si>
+    <t>2022 OCT 03 13:37:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.2hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 03 15:34:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.1hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 03 17:31:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.9hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 03 19:28:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.8hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 03 21:25:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.7hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>Nominal 6SUBD 01</t>
+  </si>
+  <si>
+    <t>2022 OCT 03 23:22:43</t>
+  </si>
+  <si>
+    <t>2022 OCT 04 01:19:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.3hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 03:16:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.0hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 05:13:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.6hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 07:09:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.1hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 09:06:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=2.5hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 11:03:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=1.6hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 12:59:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=0.5hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 14:56:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=23.2hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 16:52:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=22.1hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 18:49:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=21.4hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 20:45:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.8hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 04 22:42:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.3hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 00:38:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.9hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 02:35:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.6hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 04:32:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.4hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>Surface Ice 4SUBD 02</t>
+  </si>
+  <si>
+    <t>2022 OCT 05 06:29:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.2hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 08:26:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.1hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 10:23:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.9hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 12:19:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.8hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 14:16:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;acsSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 16:14:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 18:11:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.5hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2022 OCT 05 20:08:49</t>
+  </si>
+  <si>
+    <t>2022 OCT 05 22:06:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.4hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2022 OCT 06 00:03:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.3hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2022 OCT 06 02:00:28</t>
+  </si>
+  <si>
+    <t>2022 OCT 06 03:57:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.2hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2022 OCT 06 05:55:28</t>
+  </si>
+  <si>
+    <t>2022 OCT 06 07:53:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.2hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2022 OCT 06 09:50:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2022 OCT 06 11:48:01</t>
+  </si>
+  <si>
+    <t>2022 OCT 06 13:45:26</t>
+  </si>
+  <si>
+    <t>2022 OCT 06 15:43:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2022 OCT 06 17:40:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2022 OCT 06 19:38:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.9hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2022 OCT 06 21:36:09</t>
+  </si>
+  <si>
+    <t>2022 OCT 06 23:33:40</t>
+  </si>
+  <si>
+    <t>2022 OCT 07 01:31:14</t>
+  </si>
+  <si>
+    <t>2022 OCT 07 03:28:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2022 OCT 07 05:26:40</t>
+  </si>
+  <si>
+    <t>2022 OCT 07 07:24:28</t>
+  </si>
+  <si>
+    <t>2022 OCT 07 09:22:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2022 OCT 07 11:19:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2022 OCT 07 13:17:31</t>
+  </si>
+  <si>
+    <t>2022 OCT 07 15:15:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2022 OCT 07 17:13:03</t>
+  </si>
+  <si>
+    <t>2022 OCT 07 19:10:55</t>
+  </si>
+  <si>
+    <t>2022 OCT 07 21:08:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>Ice H2O 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2022 OCT 07 23:06:27</t>
+  </si>
+  <si>
+    <t>2022 OCT 08 01:04:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2022 OCT 08 03:01:52</t>
+  </si>
+  <si>
+    <t>Ice CO 2SUBD #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 08 04:59:43</t>
+  </si>
+  <si>
+    <t>2022 OCT 08 06:57:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2022 OCT 08 08:55:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2022 OCT 08 10:53:15</t>
+  </si>
+  <si>
+    <t>2022 OCT 08 12:50:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; </t>
+  </si>
+  <si>
+    <t>2022 OCT 08 14:48:43</t>
+  </si>
+  <si>
+    <t>2022 OCT 08 16:46:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2022 OCT 08 18:44:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>Ice CH4 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2022 OCT 08 20:42:23</t>
+  </si>
+  <si>
+    <t>2022 OCT 08 22:40:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2022 OCT 09 00:37:55</t>
+  </si>
+  <si>
+    <t>2022 OCT 09 02:35:42</t>
+  </si>
+  <si>
+    <t>Nominal 4SUBD #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 09 04:33:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2022 OCT 09 06:31:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2022 OCT 09 08:29:21</t>
+  </si>
+  <si>
+    <t>2022 OCT 09 10:27:13</t>
+  </si>
+  <si>
+    <t>2022 OCT 09 12:25:00</t>
+  </si>
+  <si>
+    <t>2022 OCT 09 14:22:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2022 OCT 09 16:20:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2022 OCT 09 18:18:33</t>
+  </si>
+  <si>
+    <t>2022 OCT 09 20:16:28</t>
+  </si>
+  <si>
+    <t>2022 OCT 09 22:14:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2022 OCT 10 00:12:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>Nominal 4SUBD 01</t>
+  </si>
+  <si>
+    <t>2022 OCT 10 02:09:55</t>
+  </si>
+  <si>
+    <t>2022 OCT 10 04:07:47</t>
+  </si>
+  <si>
+    <t>2022 OCT 10 06:05:41</t>
+  </si>
+  <si>
+    <t>2022 OCT 10 08:03:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=72; </t>
   </si>
   <si>
     <t>Surface Ice 6SUBD 01</t>
   </si>
   <si>
-    <t>2022 OCT 01 22:26:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 02 00:24:15</t>
-  </si>
-  <si>
-    <t>2022 OCT 02 02:22:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2022 OCT 02 04:19:38</t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 02 06:17:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2022 OCT 02 08:14:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2022 OCT 02 10:12:36</t>
-  </si>
-  <si>
-    <t>2022 OCT 02 12:10:19</t>
-  </si>
-  <si>
-    <t>2022 OCT 02 14:07:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
-  </si>
-  <si>
-    <t>Ice CH4 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2022 OCT 02 16:05:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2022 OCT 02 18:03:02</t>
-  </si>
-  <si>
-    <t>2022 OCT 02 20:00:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=83; </t>
+    <t>2022 OCT 10 10:01:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2022 OCT 10 11:59:21</t>
+  </si>
+  <si>
+    <t>2022 OCT 10 13:57:09</t>
+  </si>
+  <si>
+    <t>2022 OCT 10 15:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2022 OCT 10 17:52:55</t>
+  </si>
+  <si>
+    <t>2022 OCT 10 19:50:51</t>
+  </si>
+  <si>
+    <t>2022 OCT 10 21:48:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2022 OCT 10 23:46:36</t>
+  </si>
+  <si>
+    <t>2022 OCT 11 01:44:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2022 OCT 11 03:42:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; </t>
+  </si>
+  <si>
+    <t>2022 OCT 11 05:40:09</t>
+  </si>
+  <si>
+    <t>Surface Ice 4SUBD 01</t>
+  </si>
+  <si>
+    <t>2022 OCT 11 07:38:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>2022 OCT 11 09:35:59</t>
+  </si>
+  <si>
+    <t>2022 OCT 11 11:33:52</t>
+  </si>
+  <si>
+    <t>2022 OCT 11 13:31:41</t>
+  </si>
+  <si>
+    <t>2022 OCT 11 15:29:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>H2O Fullscan #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 11 17:27:25</t>
+  </si>
+  <si>
+    <t>2022 OCT 11 19:25:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2022 OCT 11 21:23:18</t>
+  </si>
+  <si>
+    <t>2022 OCT 11 23:21:11</t>
+  </si>
+  <si>
+    <t>2022 OCT 12 01:19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2022 OCT 12 03:16:50</t>
+  </si>
+  <si>
+    <t>2022 OCT 12 05:14:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2022 OCT 12 07:12:40</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O CO #15</t>
+  </si>
+  <si>
+    <t>uvisGrazing</t>
+  </si>
+  <si>
+    <t>2022 OCT 12 09:10:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:AEOLIS MENSAE MFF; </t>
+  </si>
+  <si>
+    <t>2022 OCT 12 11:08:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2022 OCT 12 13:06:21</t>
+  </si>
+  <si>
+    <t>2022 OCT 12 15:04:11</t>
+  </si>
+  <si>
+    <t>All Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 12 17:02:04</t>
+  </si>
+  <si>
+    <t>2022 OCT 12 19:00:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=65; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #14</t>
+  </si>
+  <si>
+    <t>2022 OCT 12 20:57:58</t>
+  </si>
+  <si>
+    <t>2022 OCT 12 22:55:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:EASTERN COPRATES; &amp;grazingMatch:COPRATES RISE; </t>
+  </si>
+  <si>
+    <t>2022 OCT 13 00:53:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2022 OCT 13 02:51:32</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #48</t>
+  </si>
+  <si>
+    <t>2022 OCT 13 04:49:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2022 OCT 13 06:47:21</t>
+  </si>
+  <si>
+    <t>2022 OCT 13 08:45:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>134 only #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 13 10:43:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:INSIGHT; &amp;grazingMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2022 OCT 13 12:41:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:TIANWEN1; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #12</t>
+  </si>
+  <si>
+    <t>uvisMerged</t>
+  </si>
+  <si>
+    <t>2022 OCT 13 14:38:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mergedMatch:PERSEVERANCE; </t>
+  </si>
+  <si>
+    <t>2022 OCT 13 16:36:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>2022 OCT 13 18:34:43</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #11</t>
+  </si>
+  <si>
+    <t>2022 OCT 13 20:32:41</t>
+  </si>
+  <si>
+    <t>2022 OCT 13 22:30:37</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #51</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #45</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 00:28:29</t>
+  </si>
+  <si>
+    <t>Nominal 3SUBD 01</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 02:26:19</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO2 #1</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #7</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 04:24:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>All Fullscan Slow #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 06:22:06</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 08:20:03</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 10:17:59</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #21</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 12:15:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>2022 OCT 14 14:13:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>2022 OCT 14 16:11:35</t>
+  </si>
+  <si>
+    <t>129 only #2</t>
+  </si>
+  <si>
+    <t>6SUBD CO #1</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 18:09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>CO2 100km #1</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #22</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 20:07:27</t>
+  </si>
+  <si>
+    <t>2022 OCT 14 22:05:24</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #26</t>
+  </si>
+  <si>
+    <t>2022 OCT 15 00:03:18</t>
+  </si>
+  <si>
+    <t>2022 OCT 15 02:01:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=58; </t>
+  </si>
+  <si>
+    <t>6SUBD CH4 #1</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #1</t>
+  </si>
+  <si>
+    <t>2022 OCT 15 03:59:00</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #20</t>
+  </si>
+  <si>
+    <t>2022 OCT 15 05:56:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; </t>
+  </si>
+  <si>
+    <t>2022 OCT 15 07:54:51</t>
+  </si>
+  <si>
+    <t>2022 OCT 15 09:52:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; </t>
+  </si>
+  <si>
+    <t>2022 OCT 15 11:50:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=57; </t>
+  </si>
+  <si>
+    <t>2022 OCT 15 13:48:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; &amp;daysideMatch:ULYSSES FOSSAE; </t>
+  </si>
+  <si>
+    <t>2022 OCT 15 15:46:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=56; </t>
+  </si>
+  <si>
+    <t>2022 OCT 15 17:44:20</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #42</t>
+  </si>
+  <si>
+    <t>2022 OCT 15 19:42:17</t>
+  </si>
+  <si>
+    <t>2022 OCT 15 21:40:14</t>
+  </si>
+  <si>
+    <t>136 only #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 15 23:38:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #12</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #6</t>
+  </si>
+  <si>
+    <t>CH4 CO 2SUBD #3</t>
+  </si>
+  <si>
+    <t>2022 OCT 16 01:36:02</t>
+  </si>
+  <si>
+    <t>2022 OCT 16 03:33:53</t>
+  </si>
+  <si>
+    <t>2022 OCT 16 05:31:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 16 07:29:42</t>
+  </si>
+  <si>
+    <t>2022 OCT 16 09:27:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.7hrs; &amp;Angle=55; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #19</t>
+  </si>
+  <si>
+    <t>2022 OCT 16 11:25:34</t>
+  </si>
+  <si>
+    <t>2022 OCT 16 13:23:28</t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #4</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #16</t>
+  </si>
+  <si>
+    <t>2022 OCT 16 15:21:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=54; </t>
+  </si>
+  <si>
+    <t>2022 OCT 16 17:19:12</t>
+  </si>
+  <si>
+    <t>2022 OCT 16 19:17:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=53; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #17</t>
+  </si>
+  <si>
+    <t>CH4 2SUBD 03</t>
+  </si>
+  <si>
+    <t>2022 OCT 16 21:15:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2022 OCT 16 23:13:02</t>
+  </si>
+  <si>
+    <t>2022 OCT 17 01:10:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #3</t>
+  </si>
+  <si>
+    <t>2022 OCT 17 03:08:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=52; </t>
+  </si>
+  <si>
+    <t>2022 OCT 17 05:06:39</t>
+  </si>
+  <si>
+    <t>2022 OCT 17 07:04:34</t>
+  </si>
+  <si>
+    <t>CO Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 17 09:02:31</t>
+  </si>
+  <si>
+    <t>2022 OCT 17 11:00:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=51; </t>
+  </si>
+  <si>
+    <t>2022 OCT 17 12:58:22</t>
+  </si>
+  <si>
+    <t>2022 OCT 17 14:56:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 17 16:54:06</t>
+  </si>
+  <si>
+    <t>132 only #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 17 18:52:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.4hrs; &amp;Angle=50; </t>
+  </si>
+  <si>
+    <t>2022 OCT 17 20:49:58</t>
+  </si>
+  <si>
+    <t>2022 OCT 17 22:47:56</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #27</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #13</t>
+  </si>
+  <si>
+    <t>2022 OCT 18 00:45:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES NE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 18 02:43:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=49; </t>
+  </si>
+  <si>
+    <t>2022 OCT 18 04:41:34</t>
+  </si>
+  <si>
+    <t>HCL #10</t>
+  </si>
+  <si>
+    <t>6SUBD CO #3</t>
+  </si>
+  <si>
+    <t>2022 OCT 18 06:39:28</t>
+  </si>
+  <si>
+    <t>2022 OCT 18 08:37:24</t>
+  </si>
+  <si>
+    <t>2022 OCT 18 10:35:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=48; </t>
+  </si>
+  <si>
+    <t>6SUBD CO #5</t>
+  </si>
+  <si>
+    <t>2022 OCT 18 12:33:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=48; </t>
+  </si>
+  <si>
+    <t>HDO H2O 2SUBD 03</t>
+  </si>
+  <si>
+    <t>2022 OCT 18 14:31:10</t>
+  </si>
+  <si>
+    <t>2022 OCT 18 16:29:01</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #11</t>
+  </si>
+  <si>
+    <t>2022 OCT 18 18:26:54</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #18</t>
+  </si>
+  <si>
+    <t>2022 OCT 18 20:24:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=47; </t>
+  </si>
+  <si>
+    <t>2022 OCT 18 22:22:48</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 00:20:45</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 02:18:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.1hrs; &amp;Angle=47; </t>
+  </si>
+  <si>
+    <t>Surface 3SUBD #3</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 04:16:29</t>
+  </si>
+  <si>
+    <t>HCL #9</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 06:14:22</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 08:12:18</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 10:10:15</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 12:08:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=45; </t>
+  </si>
+  <si>
+    <t>2022 OCT 19 14:06:06</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 16:03:58</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 18:01:50</t>
+  </si>
+  <si>
+    <t>2022 OCT 19 19:59:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
+  </si>
+  <si>
+    <t>2022 OCT 19 21:57:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=44; </t>
+  </si>
+  <si>
+    <t>2022 OCT 19 23:55:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=44; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CH4 #1</t>
+  </si>
+  <si>
+    <t>2022 OCT 20 01:53:35</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 20 03:51:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=43; </t>
+  </si>
+  <si>
+    <t>2022 OCT 20 05:49:18</t>
   </si>
   <si>
     <t>Surface Ice 3SUBD 01</t>
   </si>
   <si>
-    <t>2022 OCT 02 21:58:06</t>
-  </si>
-  <si>
-    <t>2022 OCT 02 23:55:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2022 OCT 03 01:53:20</t>
-  </si>
-  <si>
-    <t>2022 OCT 03 03:50:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.5hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>HDO H2O 2SUBD 03</t>
-  </si>
-  <si>
-    <t>2022 OCT 03 05:48:01</t>
-  </si>
-  <si>
-    <t>2022 OCT 03 07:45:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.4hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2022 OCT 03 09:42:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.3hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 03 11:40:09</t>
-  </si>
-  <si>
-    <t>H2O CO 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2022 OCT 03 13:37:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.2hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 03 15:34:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.1hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 03 17:31:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.9hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 03 19:28:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.8hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 03 21:25:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.7hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>Surface 3SUBD #3</t>
-  </si>
-  <si>
-    <t>2022 OCT 03 23:22:43</t>
-  </si>
-  <si>
-    <t>2022 OCT 04 01:19:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.3hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 03:16:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.0hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 05:13:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.6hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>Ice CO 2SUBD #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 04 07:09:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.1hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 09:06:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=2.5hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 11:03:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=1.6hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 12:59:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=0.5hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 14:56:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=23.2hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 16:52:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=22.1hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 18:49:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=21.4hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 20:45:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.8hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 04 22:42:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.3hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 00:38:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.9hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 02:35:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.6hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 04:32:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.4hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 06:29:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.2hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 08:26:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.1hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 10:23:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.9hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 12:19:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.8hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 14:16:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;acsSolarCalibration; </t>
-  </si>
-  <si>
-    <t>Surface Ice 4SUBD 01</t>
-  </si>
-  <si>
-    <t>2022 OCT 05 16:14:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 18:11:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.5hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2022 OCT 05 20:08:49</t>
-  </si>
-  <si>
-    <t>2022 OCT 05 22:06:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.4hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2022 OCT 06 00:03:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.3hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2022 OCT 06 02:00:28</t>
-  </si>
-  <si>
-    <t>2022 OCT 06 03:57:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.2hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2022 OCT 06 05:55:28</t>
-  </si>
-  <si>
-    <t>2022 OCT 06 07:53:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.2hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2022 OCT 06 09:50:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2022 OCT 06 11:48:01</t>
-  </si>
-  <si>
-    <t>2022 OCT 06 13:45:26</t>
-  </si>
-  <si>
-    <t>CH4 CO 2SUBD #3</t>
-  </si>
-  <si>
-    <t>2022 OCT 06 15:43:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2022 OCT 06 17:40:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2022 OCT 06 19:38:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.9hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2022 OCT 06 21:36:09</t>
-  </si>
-  <si>
-    <t>2022 OCT 06 23:33:40</t>
-  </si>
-  <si>
-    <t>2022 OCT 07 01:31:14</t>
-  </si>
-  <si>
-    <t>2022 OCT 07 03:28:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2022 OCT 07 05:26:40</t>
-  </si>
-  <si>
-    <t>2022 OCT 07 07:24:28</t>
-  </si>
-  <si>
-    <t>2022 OCT 07 09:22:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2022 OCT 07 11:19:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>Nominal 6SUBD 01</t>
-  </si>
-  <si>
-    <t>2022 OCT 07 13:17:31</t>
-  </si>
-  <si>
-    <t>2022 OCT 07 15:15:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2022 OCT 07 17:13:03</t>
-  </si>
-  <si>
-    <t>2022 OCT 07 19:10:55</t>
-  </si>
-  <si>
-    <t>2022 OCT 07 21:08:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2022 OCT 07 23:06:27</t>
-  </si>
-  <si>
-    <t>2022 OCT 08 01:04:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2022 OCT 08 03:01:52</t>
-  </si>
-  <si>
-    <t>2022 OCT 08 04:59:43</t>
-  </si>
-  <si>
-    <t>2022 OCT 08 06:57:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2022 OCT 08 08:55:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2022 OCT 08 10:53:15</t>
-  </si>
-  <si>
-    <t>2022 OCT 08 12:50:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; </t>
-  </si>
-  <si>
-    <t>2022 OCT 08 14:48:43</t>
-  </si>
-  <si>
-    <t>2022 OCT 08 16:46:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2022 OCT 08 18:44:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2022 OCT 08 20:42:23</t>
-  </si>
-  <si>
-    <t>2022 OCT 08 22:40:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2022 OCT 09 00:37:55</t>
-  </si>
-  <si>
-    <t>2022 OCT 09 02:35:42</t>
-  </si>
-  <si>
-    <t>2022 OCT 09 04:33:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2022 OCT 09 06:31:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2022 OCT 09 08:29:21</t>
-  </si>
-  <si>
-    <t>2022 OCT 09 10:27:13</t>
-  </si>
-  <si>
-    <t>2022 OCT 09 12:25:00</t>
-  </si>
-  <si>
-    <t>2022 OCT 09 14:22:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2022 OCT 09 16:20:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2022 OCT 09 18:18:33</t>
-  </si>
-  <si>
-    <t>2022 OCT 09 20:16:28</t>
-  </si>
-  <si>
-    <t>2022 OCT 09 22:14:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2022 OCT 10 00:12:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2022 OCT 10 02:09:55</t>
-  </si>
-  <si>
-    <t>2022 OCT 10 04:07:47</t>
-  </si>
-  <si>
-    <t>2022 OCT 10 06:05:41</t>
-  </si>
-  <si>
-    <t>2022 OCT 10 08:03:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>Nominal 6SUBD #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 10 10:01:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2022 OCT 10 11:59:21</t>
-  </si>
-  <si>
-    <t>2022 OCT 10 13:57:09</t>
-  </si>
-  <si>
-    <t>2022 OCT 10 15:55:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>HDO H2O 2SUBD 02</t>
-  </si>
-  <si>
-    <t>2022 OCT 10 17:52:55</t>
-  </si>
-  <si>
-    <t>2022 OCT 10 19:50:51</t>
-  </si>
-  <si>
-    <t>2022 OCT 10 21:48:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2022 OCT 10 23:46:36</t>
-  </si>
-  <si>
-    <t>2022 OCT 11 01:44:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>2022 OCT 11 03:42:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; </t>
-  </si>
-  <si>
-    <t>2022 OCT 11 05:40:09</t>
-  </si>
-  <si>
-    <t>2022 OCT 11 07:38:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2022 OCT 11 09:35:59</t>
-  </si>
-  <si>
-    <t>2022 OCT 11 11:33:52</t>
-  </si>
-  <si>
-    <t>2022 OCT 11 13:31:41</t>
-  </si>
-  <si>
-    <t>2022 OCT 11 15:29:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2022 OCT 11 17:27:25</t>
-  </si>
-  <si>
-    <t>2022 OCT 11 19:25:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2022 OCT 11 21:23:18</t>
-  </si>
-  <si>
-    <t>2022 OCT 11 23:21:11</t>
-  </si>
-  <si>
-    <t>2022 OCT 12 01:19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2022 OCT 12 03:16:50</t>
-  </si>
-  <si>
-    <t>2022 OCT 12 05:14:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2022 OCT 12 07:12:40</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O CO #15</t>
-  </si>
-  <si>
-    <t>uvisGrazing</t>
-  </si>
-  <si>
-    <t>2022 OCT 12 09:10:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:AEOLIS MENSAE MFF; </t>
-  </si>
-  <si>
-    <t>2022 OCT 12 11:08:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2022 OCT 12 13:06:21</t>
-  </si>
-  <si>
-    <t>2022 OCT 12 15:04:11</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #14</t>
-  </si>
-  <si>
-    <t>2022 OCT 12 17:02:04</t>
-  </si>
-  <si>
-    <t>2022 OCT 12 19:00:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=65; </t>
-  </si>
-  <si>
-    <t>2022 OCT 12 20:57:58</t>
-  </si>
-  <si>
-    <t>2022 OCT 12 22:55:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:EASTERN COPRATES; &amp;grazingMatch:COPRATES RISE; </t>
-  </si>
-  <si>
-    <t>CH4 3SUBD 01</t>
-  </si>
-  <si>
-    <t>2022 OCT 13 00:53:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2022 OCT 13 02:51:32</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #51</t>
-  </si>
-  <si>
-    <t>2022 OCT 13 04:49:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2022 OCT 13 06:47:21</t>
-  </si>
-  <si>
-    <t>Surface Ice 4SUBD 02</t>
-  </si>
-  <si>
-    <t>2022 OCT 13 08:45:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>134 only #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 13 10:43:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:INSIGHT; &amp;grazingMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>uvisMerged</t>
-  </si>
-  <si>
-    <t>2022 OCT 13 12:41:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mergedMatch:TIANWEN1; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #12</t>
-  </si>
-  <si>
-    <t>2022 OCT 13 14:38:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mergedMatch:PERSEVERANCE; </t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD 01</t>
-  </si>
-  <si>
-    <t>2022 OCT 13 16:36:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>2022 OCT 13 18:34:43</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #48</t>
-  </si>
-  <si>
-    <t>2022 OCT 13 20:32:41</t>
-  </si>
-  <si>
-    <t>2022 OCT 13 22:30:37</t>
-  </si>
-  <si>
-    <t>All Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>All Fullscan Slow #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 00:28:29</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 02:26:19</t>
-  </si>
-  <si>
-    <t>HCL #9</t>
-  </si>
-  <si>
-    <t>CO2 100km #1</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 04:24:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>HDO 01</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 06:22:06</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 08:20:03</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 10:17:59</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #20</t>
-  </si>
-  <si>
-    <t>CO Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 12:15:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>2022 OCT 14 14:13:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>2022 OCT 14 16:11:35</t>
-  </si>
-  <si>
-    <t>CO2 Fullscan Fast #4</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 18:09:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO2 #1</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #27</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 20:07:27</t>
-  </si>
-  <si>
-    <t>2022 OCT 14 22:05:24</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #6</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #21</t>
-  </si>
-  <si>
-    <t>2022 OCT 15 00:03:18</t>
-  </si>
-  <si>
-    <t>2022 OCT 15 02:01:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=58; </t>
-  </si>
-  <si>
-    <t>2022 OCT 15 03:59:00</t>
+    <t>2022 OCT 20 07:47:13</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #12</t>
+  </si>
+  <si>
+    <t>2022 OCT 20 09:45:09</t>
+  </si>
+  <si>
+    <t>2022 OCT 20 11:43:06</t>
+  </si>
+  <si>
+    <t>2022 OCT 20 13:41:01</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #1</t>
+  </si>
+  <si>
+    <t>CH4 H2O 2SUBD 01</t>
+  </si>
+  <si>
+    <t>2022 OCT 20 15:38:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 20 17:36:45</t>
+  </si>
+  <si>
+    <t>2022 OCT 20 19:34:40</t>
+  </si>
+  <si>
+    <t>2022 OCT 20 21:32:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>2022 OCT 20 23:30:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.8hrs; &amp;Angle=41; </t>
+  </si>
+  <si>
+    <t>2022 OCT 21 01:28:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=41; </t>
   </si>
   <si>
     <t>6SUBD CO2 #24</t>
   </si>
   <si>
-    <t>6SUBD CO #1</t>
-  </si>
-  <si>
-    <t>2022 OCT 15 05:56:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; </t>
-  </si>
-  <si>
-    <t>2022 OCT 15 07:54:51</t>
-  </si>
-  <si>
-    <t>2022 OCT 15 09:52:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; </t>
+    <t>2022 OCT 21 03:26:23</t>
+  </si>
+  <si>
+    <t>2022 OCT 21 05:24:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=40; </t>
+  </si>
+  <si>
+    <t>2022 OCT 21 07:22:08</t>
+  </si>
+  <si>
+    <t>2022 OCT 21 09:20:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
+  </si>
+  <si>
+    <t>2022 OCT 21 11:18:01</t>
+  </si>
+  <si>
+    <t>Nominal Limb 01</t>
+  </si>
+  <si>
+    <t>uvisLimb</t>
+  </si>
+  <si>
+    <t>2022 OCT 21 13:15:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueDayLimb; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #23</t>
+  </si>
+  <si>
+    <t>2022 OCT 21 15:13:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2022 OCT 21 17:11:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>6SUBD CO H2O #1</t>
+  </si>
+  <si>
+    <t>2022 OCT 21 19:09:36</t>
+  </si>
+  <si>
+    <t>2022 OCT 21 21:07:32</t>
+  </si>
+  <si>
+    <t>2022 OCT 21 23:05:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.6hrs; &amp;Angle=38; </t>
+  </si>
+  <si>
+    <t>2022 OCT 22 01:03:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 22 03:01:21</t>
   </si>
   <si>
     <t>6SUBD Nom CH4 #2</t>
   </si>
   <si>
-    <t>2022 OCT 15 11:50:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=57; </t>
-  </si>
-  <si>
-    <t>2022 OCT 15 13:48:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; &amp;daysideMatch:ULYSSES FOSSAE; </t>
-  </si>
-  <si>
-    <t>2022 OCT 15 15:46:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=56; </t>
-  </si>
-  <si>
-    <t>2022 OCT 15 17:44:20</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #12</t>
+    <t>2022 OCT 22 04:59:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.5hrs; &amp;Angle=37; </t>
+  </si>
+  <si>
+    <t>2022 OCT 22 06:57:05</t>
+  </si>
+  <si>
+    <t>Limb 2SUBD 07</t>
+  </si>
+  <si>
+    <t>2022 OCT 22 08:55:00</t>
+  </si>
+  <si>
+    <t>2022 OCT 22 10:52:57</t>
+  </si>
+  <si>
+    <t>2022 OCT 22 12:50:53</t>
+  </si>
+  <si>
+    <t>2022 OCT 22 14:48:48</t>
+  </si>
+  <si>
+    <t>CH4 CO 2SUBD #4</t>
+  </si>
+  <si>
+    <t>2022 OCT 22 16:46:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.4hrs; &amp;Angle=36; </t>
+  </si>
+  <si>
+    <t>2022 OCT 22 18:44:33</t>
+  </si>
+  <si>
+    <t>2022 OCT 22 20:42:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.4hrs; &amp;Angle=35; </t>
+  </si>
+  <si>
+    <t>2022 OCT 22 22:40:26</t>
+  </si>
+  <si>
+    <t>2022 OCT 23 00:38:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.3hrs; &amp;Angle=35; </t>
+  </si>
+  <si>
+    <t>2022 OCT 23 02:36:19</t>
+  </si>
+  <si>
+    <t>2022 OCT 23 04:34:12</t>
+  </si>
+  <si>
+    <t>2022 OCT 23 06:32:03</t>
+  </si>
+  <si>
+    <t>2022 OCT 23 08:29:57</t>
   </si>
   <si>
     <t>6SUBD CO #4</t>
   </si>
   <si>
-    <t>2022 OCT 15 19:42:17</t>
-  </si>
-  <si>
-    <t>2022 OCT 15 21:40:14</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #42</t>
-  </si>
-  <si>
-    <t>136 only #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 15 23:38:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CH4 #1</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 01:36:02</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 03:33:53</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 05:31:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 16 07:29:42</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 09:27:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.7hrs; &amp;Angle=55; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #12</t>
-  </si>
-  <si>
-    <t>6SUBD CO #2</t>
-  </si>
-  <si>
-    <t>H2O 2SUBD 01</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 11:25:34</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 13:23:28</t>
-  </si>
-  <si>
-    <t>129 only #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 15:21:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=54; </t>
-  </si>
-  <si>
-    <t>2022 OCT 16 17:19:12</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 19:17:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=53; </t>
-  </si>
-  <si>
-    <t>CH4 2SUBD 03</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 21:15:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #1</t>
-  </si>
-  <si>
-    <t>2022 OCT 16 23:13:02</t>
-  </si>
-  <si>
-    <t>2022 OCT 17 01:10:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #16</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #3</t>
-  </si>
-  <si>
-    <t>2022 OCT 17 03:08:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=52; </t>
-  </si>
-  <si>
-    <t>2022 OCT 17 05:06:39</t>
-  </si>
-  <si>
-    <t>2022 OCT 17 07:04:34</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #26</t>
-  </si>
-  <si>
-    <t>2022 OCT 17 09:02:31</t>
-  </si>
-  <si>
-    <t>2022 OCT 17 11:00:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=51; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #13</t>
-  </si>
-  <si>
-    <t>2022 OCT 17 12:58:22</t>
-  </si>
-  <si>
-    <t>2022 OCT 17 14:56:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 17 16:54:06</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #11</t>
-  </si>
-  <si>
-    <t>2022 OCT 17 18:52:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.4hrs; &amp;Angle=50; </t>
-  </si>
-  <si>
-    <t>2022 OCT 17 20:49:58</t>
-  </si>
-  <si>
-    <t>2022 OCT 17 22:47:56</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #13</t>
-  </si>
-  <si>
-    <t>2022 OCT 18 00:45:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES NE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 18 02:43:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=49; </t>
-  </si>
-  <si>
-    <t>2022 OCT 18 04:41:34</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #4</t>
-  </si>
-  <si>
-    <t>2022 OCT 18 06:39:28</t>
-  </si>
-  <si>
-    <t>2022 OCT 18 08:37:24</t>
-  </si>
-  <si>
-    <t>2022 OCT 18 10:35:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=48; </t>
-  </si>
-  <si>
-    <t>2022 OCT 18 12:33:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=48; </t>
-  </si>
-  <si>
-    <t>2022 OCT 18 14:31:10</t>
-  </si>
-  <si>
-    <t>2022 OCT 18 16:29:01</t>
+    <t>2022 OCT 23 10:27:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>CH4 H2O 2SUBD 02</t>
+  </si>
+  <si>
+    <t>2022 OCT 23 12:25:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; &amp;mroOverlap; </t>
   </si>
   <si>
     <t>LNO Occultation Fullscan Fast #2</t>
   </si>
   <si>
-    <t>2022 OCT 18 18:26:54</t>
-  </si>
-  <si>
-    <t>6SUBD CO #5</t>
-  </si>
-  <si>
-    <t>2022 OCT 18 20:24:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=47; </t>
-  </si>
-  <si>
-    <t>2022 OCT 18 22:22:48</t>
-  </si>
-  <si>
-    <t>HCL #4</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 00:20:45</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 02:18:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.1hrs; &amp;Angle=47; </t>
-  </si>
-  <si>
-    <t>2022 OCT 19 04:16:29</t>
+    <t>2022 OCT 23 14:23:47</t>
   </si>
   <si>
     <t>6SUBD CH4 H2O #1</t>
   </si>
   <si>
-    <t>2022 OCT 19 06:14:22</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 08:12:18</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 10:10:15</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 12:08:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=45; </t>
-  </si>
-  <si>
-    <t>CO2 Fullscan Fast #3</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 14:06:06</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 16:03:58</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 18:01:50</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 19:59:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #17</t>
-  </si>
-  <si>
-    <t>2022 OCT 19 21:57:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=44; </t>
-  </si>
-  <si>
-    <t>2022 OCT 19 23:55:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=44; </t>
-  </si>
-  <si>
-    <t>HCL #10</t>
-  </si>
-  <si>
-    <t>2022 OCT 20 01:53:35</t>
-  </si>
-  <si>
-    <t>2022 OCT 20 03:51:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=43; </t>
-  </si>
-  <si>
-    <t>2022 OCT 20 05:49:18</t>
-  </si>
-  <si>
-    <t>CH4 CO 2SUBD #4</t>
-  </si>
-  <si>
-    <t>2022 OCT 20 07:47:13</t>
-  </si>
-  <si>
-    <t>2022 OCT 20 09:45:09</t>
-  </si>
-  <si>
-    <t>2022 OCT 20 11:43:06</t>
-  </si>
-  <si>
-    <t>2022 OCT 20 13:41:01</t>
-  </si>
-  <si>
-    <t>CH4 H2O 2SUBD 01</t>
-  </si>
-  <si>
-    <t>2022 OCT 20 15:38:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 20 17:36:45</t>
-  </si>
-  <si>
-    <t>6SUBD CH4 #1</t>
-  </si>
-  <si>
-    <t>CO2 Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 20 19:34:40</t>
-  </si>
-  <si>
-    <t>2022 OCT 20 21:32:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
+    <t>2022 OCT 23 16:21:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
+  </si>
+  <si>
+    <t>2022 OCT 23 18:19:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.2hrs; &amp;Angle=33; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #10</t>
+  </si>
+  <si>
+    <t>133 only #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 23 20:17:26</t>
+  </si>
+  <si>
+    <t>2022 OCT 23 22:15:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.2hrs; &amp;Angle=32; </t>
+  </si>
+  <si>
+    <t>2022 OCT 24 00:13:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.1hrs; &amp;Angle=32; </t>
+  </si>
+  <si>
+    <t>2022 OCT 24 02:11:17</t>
+  </si>
+  <si>
+    <t>2022 OCT 24 04:09:11</t>
+  </si>
+  <si>
+    <t>2022 OCT 24 06:07:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.1hrs; &amp;Angle=31; </t>
+  </si>
+  <si>
+    <t>2022 OCT 24 08:04:55</t>
+  </si>
+  <si>
+    <t>2022 OCT 24 10:02:51</t>
+  </si>
+  <si>
+    <t>2022 OCT 24 12:00:49</t>
+  </si>
+  <si>
+    <t>2022 OCT 24 13:58:45</t>
+  </si>
+  <si>
+    <t>2022 OCT 24 15:56:40</t>
+  </si>
+  <si>
+    <t>HCL #8</t>
+  </si>
+  <si>
+    <t>2022 OCT 24 17:54:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 24 19:52:25</t>
+  </si>
+  <si>
+    <t>2022 OCT 24 21:50:21</t>
+  </si>
+  <si>
+    <t>2022 OCT 24 23:48:19</t>
+  </si>
+  <si>
+    <t>2022 OCT 25 01:46:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadDeimos; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 25 03:44:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
+  </si>
+  <si>
+    <t>2022 OCT 25 05:42:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.9hrs; &amp;Angle=28; </t>
+  </si>
+  <si>
+    <t>2022 OCT 25 07:39:56</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #1</t>
+  </si>
+  <si>
+    <t>2022 OCT 25 09:37:51</t>
+  </si>
+  <si>
+    <t>2022 OCT 25 11:35:48</t>
+  </si>
+  <si>
+    <t>2022 OCT 25 13:33:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.8hrs; &amp;Angle=27; </t>
   </si>
   <si>
     <t>6SUBD CO2 CO #25</t>
   </si>
   <si>
-    <t>2022 OCT 20 23:30:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.8hrs; &amp;Angle=41; </t>
-  </si>
-  <si>
-    <t>2022 OCT 21 01:28:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=41; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 21 03:26:23</t>
-  </si>
-  <si>
-    <t>2022 OCT 21 05:24:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=40; </t>
-  </si>
-  <si>
-    <t>2022 OCT 21 07:22:08</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #11</t>
-  </si>
-  <si>
-    <t>2022 OCT 21 09:20:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #3</t>
-  </si>
-  <si>
-    <t>2022 OCT 21 11:18:01</t>
-  </si>
-  <si>
-    <t>Limb 2SUBD 07</t>
-  </si>
-  <si>
-    <t>uvisLimb</t>
-  </si>
-  <si>
-    <t>2022 OCT 21 13:15:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueDayLimb; </t>
-  </si>
-  <si>
-    <t>2022 OCT 21 15:13:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2022 OCT 21 17:11:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #5</t>
-  </si>
-  <si>
-    <t>2022 OCT 21 19:09:36</t>
-  </si>
-  <si>
-    <t>2022 OCT 21 21:07:32</t>
-  </si>
-  <si>
-    <t>2022 OCT 21 23:05:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.6hrs; &amp;Angle=38; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #7</t>
-  </si>
-  <si>
-    <t>2022 OCT 22 01:03:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 22 03:01:21</t>
-  </si>
-  <si>
-    <t>2022 OCT 22 04:59:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.5hrs; &amp;Angle=37; </t>
-  </si>
-  <si>
-    <t>2022 OCT 22 06:57:05</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #1</t>
-  </si>
-  <si>
-    <t>Nominal Limb 01</t>
-  </si>
-  <si>
-    <t>2022 OCT 22 08:55:00</t>
-  </si>
-  <si>
-    <t>2022 OCT 22 10:52:57</t>
-  </si>
-  <si>
-    <t>2022 OCT 22 12:50:53</t>
-  </si>
-  <si>
-    <t>2022 OCT 22 14:48:48</t>
-  </si>
-  <si>
-    <t>2022 OCT 22 16:46:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.4hrs; &amp;Angle=36; </t>
-  </si>
-  <si>
-    <t>2022 OCT 22 18:44:33</t>
-  </si>
-  <si>
-    <t>HCL #8</t>
-  </si>
-  <si>
-    <t>2022 OCT 22 20:42:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.4hrs; &amp;Angle=35; </t>
-  </si>
-  <si>
-    <t>2022 OCT 22 22:40:26</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #45</t>
-  </si>
-  <si>
-    <t>2022 OCT 23 00:38:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.3hrs; &amp;Angle=35; </t>
-  </si>
-  <si>
-    <t>2022 OCT 23 02:36:19</t>
-  </si>
-  <si>
-    <t>2022 OCT 23 04:34:12</t>
-  </si>
-  <si>
-    <t>2022 OCT 23 06:32:03</t>
-  </si>
-  <si>
-    <t>2022 OCT 23 08:29:57</t>
-  </si>
-  <si>
-    <t>2022 OCT 23 10:27:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>CH4 H2O 2SUBD 02</t>
-  </si>
-  <si>
-    <t>2022 OCT 23 12:25:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #22</t>
-  </si>
-  <si>
-    <t>133 only #2</t>
-  </si>
-  <si>
-    <t>2022 OCT 23 14:23:47</t>
-  </si>
-  <si>
-    <t>2022 OCT 23 16:21:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
-  </si>
-  <si>
-    <t>2022 OCT 23 18:19:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.2hrs; &amp;Angle=33; </t>
-  </si>
-  <si>
-    <t>2022 OCT 23 20:17:26</t>
-  </si>
-  <si>
-    <t>2022 OCT 23 22:15:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.2hrs; &amp;Angle=32; </t>
-  </si>
-  <si>
-    <t>2022 OCT 24 00:13:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.1hrs; &amp;Angle=32; </t>
-  </si>
-  <si>
-    <t>2022 OCT 24 02:11:17</t>
-  </si>
-  <si>
-    <t>2022 OCT 24 04:09:11</t>
-  </si>
-  <si>
-    <t>2022 OCT 24 06:07:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.1hrs; &amp;Angle=31; </t>
-  </si>
-  <si>
-    <t>2022 OCT 24 08:04:55</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #19</t>
-  </si>
-  <si>
-    <t>2022 OCT 24 10:02:51</t>
-  </si>
-  <si>
-    <t>2022 OCT 24 12:00:49</t>
-  </si>
-  <si>
-    <t>2022 OCT 24 13:58:45</t>
-  </si>
-  <si>
-    <t>HCL #11</t>
-  </si>
-  <si>
-    <t>2022 OCT 24 15:56:40</t>
-  </si>
-  <si>
-    <t>2022 OCT 24 17:54:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 24 19:52:25</t>
-  </si>
-  <si>
-    <t>2022 OCT 24 21:50:21</t>
-  </si>
-  <si>
-    <t>2022 OCT 24 23:48:19</t>
-  </si>
-  <si>
-    <t>2022 OCT 25 01:46:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadDeimos; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 25 03:44:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
-  </si>
-  <si>
-    <t>2022 OCT 25 05:42:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.9hrs; &amp;Angle=28; </t>
-  </si>
-  <si>
-    <t>2022 OCT 25 07:39:56</t>
-  </si>
-  <si>
-    <t>2022 OCT 25 09:37:51</t>
-  </si>
-  <si>
-    <t>2022 OCT 25 11:35:48</t>
-  </si>
-  <si>
-    <t>Ice H2O 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2022 OCT 25 13:33:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.8hrs; &amp;Angle=27; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #23</t>
-  </si>
-  <si>
     <t>2022 OCT 25 15:31:40</t>
   </si>
   <si>
@@ -1651,111 +1642,111 @@
     <t>2022 OCT 25 19:27:25</t>
   </si>
   <si>
+    <t>2022 OCT 25 21:25:19</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #2</t>
+  </si>
+  <si>
+    <t>2022 OCT 25 23:23:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.8hrs; &amp;Angle=26; </t>
+  </si>
+  <si>
+    <t>2022 OCT 26 01:21:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 26 03:19:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.7hrs; &amp;Angle=26; </t>
+  </si>
+  <si>
+    <t>2022 OCT 26 05:17:04</t>
+  </si>
+  <si>
+    <t>2022 OCT 26 07:14:56</t>
+  </si>
+  <si>
+    <t>2022 OCT 26 09:12:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.7hrs; &amp;Angle=25; </t>
+  </si>
+  <si>
+    <t>Night Limb #2</t>
+  </si>
+  <si>
+    <t>uvisNightLimb</t>
+  </si>
+  <si>
+    <t>2022 OCT 26 11:10:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueNightLimb; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2022 OCT 26 13:08:43</t>
+  </si>
+  <si>
+    <t>2022 OCT 26 15:06:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.6hrs; &amp;Angle=24; </t>
+  </si>
+  <si>
     <t>6SUBD Nom CO2 #2</t>
   </si>
   <si>
-    <t>2022 OCT 25 21:25:19</t>
+    <t>2022 OCT 26 17:04:34</t>
+  </si>
+  <si>
+    <t>2022 OCT 26 19:02:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
+  </si>
+  <si>
+    <t>2022 OCT 26 21:00:20</t>
+  </si>
+  <si>
+    <t>2022 OCT 26 22:58:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.6hrs; &amp;Angle=23; </t>
+  </si>
+  <si>
+    <t>2022 OCT 27 00:56:14</t>
+  </si>
+  <si>
+    <t>2022 OCT 27 02:54:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.5hrs; &amp;Angle=23; </t>
+  </si>
+  <si>
+    <t>2022 OCT 27 04:52:06</t>
+  </si>
+  <si>
+    <t>2022 OCT 27 06:49:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.5hrs; &amp;Angle=22; </t>
+  </si>
+  <si>
+    <t>2022 OCT 27 08:47:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueNightLimb; </t>
   </si>
   <si>
     <t>6SUBD CO H2O #2</t>
   </si>
   <si>
-    <t>2022 OCT 25 23:23:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.8hrs; &amp;Angle=26; </t>
-  </si>
-  <si>
-    <t>2022 OCT 26 01:21:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 26 03:19:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.7hrs; &amp;Angle=26; </t>
-  </si>
-  <si>
-    <t>2022 OCT 26 05:17:04</t>
-  </si>
-  <si>
-    <t>2022 OCT 26 07:14:56</t>
-  </si>
-  <si>
-    <t>2022 OCT 26 09:12:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.7hrs; &amp;Angle=25; </t>
-  </si>
-  <si>
-    <t>Night Limb #2</t>
-  </si>
-  <si>
-    <t>uvisNightLimb</t>
-  </si>
-  <si>
-    <t>2022 OCT 26 11:10:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueNightLimb; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2022 OCT 26 13:08:43</t>
-  </si>
-  <si>
-    <t>2022 OCT 26 15:06:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.6hrs; &amp;Angle=24; </t>
-  </si>
-  <si>
-    <t>2022 OCT 26 17:04:34</t>
-  </si>
-  <si>
-    <t>2022 OCT 26 19:02:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
-  </si>
-  <si>
-    <t>2022 OCT 26 21:00:20</t>
-  </si>
-  <si>
-    <t>2022 OCT 26 22:58:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.6hrs; &amp;Angle=23; </t>
-  </si>
-  <si>
-    <t>2022 OCT 27 00:56:14</t>
-  </si>
-  <si>
-    <t>2022 OCT 27 02:54:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.5hrs; &amp;Angle=23; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #10</t>
-  </si>
-  <si>
-    <t>2022 OCT 27 04:52:06</t>
-  </si>
-  <si>
-    <t>2022 OCT 27 06:49:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.5hrs; &amp;Angle=22; </t>
-  </si>
-  <si>
-    <t>2022 OCT 27 08:47:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueNightLimb; </t>
-  </si>
-  <si>
     <t>2022 OCT 27 10:45:45</t>
   </si>
   <si>
@@ -1810,9 +1801,6 @@
     <t>2022 OCT 28 10:20:44</t>
   </si>
   <si>
-    <t>Nominal 3SUBD 01</t>
-  </si>
-  <si>
     <t>2022 OCT 28 12:18:41</t>
   </si>
   <si>
@@ -1828,9 +1816,6 @@
     <t xml:space="preserve">&amp;LST=13.2hrs; &amp;Angle=18; </t>
   </si>
   <si>
-    <t>6SUBD CO2 Dipole #1</t>
-  </si>
-  <si>
     <t>2022 OCT 28 18:12:29</t>
   </si>
   <si>
@@ -1838,9 +1823,6 @@
   </si>
   <si>
     <t>2022 OCT 28 22:08:14</t>
-  </si>
-  <si>
-    <t>6SUBD CO #3</t>
   </si>
   <si>
     <t>2022 OCT 29 00:06:11</t>
@@ -2479,13 +2461,13 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
         <v>42</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" t="s">
-        <v>43</v>
       </c>
       <c r="M17" t="s">
         <v>41</v>
@@ -2499,10 +2481,10 @@
         <v>8</v>
       </c>
       <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
         <v>44</v>
-      </c>
-      <c r="M18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2513,10 +2495,10 @@
         <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2527,10 +2509,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
         <v>47</v>
-      </c>
-      <c r="M20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2538,16 +2520,16 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
         <v>49</v>
       </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" t="s">
-        <v>50</v>
-      </c>
       <c r="M21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2558,10 +2540,10 @@
         <v>8</v>
       </c>
       <c r="L22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
         <v>51</v>
-      </c>
-      <c r="M22" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2572,10 +2554,10 @@
         <v>8</v>
       </c>
       <c r="L23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" t="s">
         <v>53</v>
-      </c>
-      <c r="M23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2586,10 +2568,10 @@
         <v>8</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2597,16 +2579,16 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" t="s">
         <v>56</v>
-      </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2617,10 +2599,10 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2631,10 +2613,10 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2645,10 +2627,10 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2659,10 +2641,10 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2670,13 +2652,13 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M30" t="s">
         <v>22</v>
@@ -2690,10 +2672,10 @@
         <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2704,10 +2686,10 @@
         <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2718,10 +2700,10 @@
         <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2729,16 +2711,16 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
         <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2749,10 +2731,10 @@
         <v>8</v>
       </c>
       <c r="L35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2763,10 +2745,10 @@
         <v>8</v>
       </c>
       <c r="L36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2777,10 +2759,10 @@
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2788,16 +2770,16 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
         <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2808,10 +2790,10 @@
         <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2822,10 +2804,10 @@
         <v>8</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2836,10 +2818,10 @@
         <v>8</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2847,16 +2829,16 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
         <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2867,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2881,10 +2863,10 @@
         <v>8</v>
       </c>
       <c r="L44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2895,10 +2877,10 @@
         <v>8</v>
       </c>
       <c r="L45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2906,16 +2888,16 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="I46" t="s">
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2926,10 +2908,10 @@
         <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2940,10 +2922,10 @@
         <v>8</v>
       </c>
       <c r="L48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2954,10 +2936,10 @@
         <v>8</v>
       </c>
       <c r="L49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2965,10 +2947,10 @@
         <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2976,16 +2958,16 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="I51" t="s">
         <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2996,10 +2978,10 @@
         <v>8</v>
       </c>
       <c r="L52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3010,10 +2992,10 @@
         <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3024,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="L54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3035,16 +3017,16 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
         <v>8</v>
       </c>
       <c r="L55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M55" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3055,10 +3037,10 @@
         <v>8</v>
       </c>
       <c r="L56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3069,10 +3051,10 @@
         <v>8</v>
       </c>
       <c r="L57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3083,10 +3065,10 @@
         <v>8</v>
       </c>
       <c r="L58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M58" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3100,10 +3082,10 @@
         <v>8</v>
       </c>
       <c r="L59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3114,10 +3096,10 @@
         <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M60" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3128,10 +3110,10 @@
         <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3139,10 +3121,10 @@
         <v>14</v>
       </c>
       <c r="L62" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3150,16 +3132,16 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
         <v>8</v>
       </c>
       <c r="L63" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M63" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3170,10 +3152,10 @@
         <v>8</v>
       </c>
       <c r="L64" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3184,10 +3166,10 @@
         <v>8</v>
       </c>
       <c r="L65" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3198,10 +3180,10 @@
         <v>8</v>
       </c>
       <c r="L66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M66" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3212,10 +3194,10 @@
         <v>8</v>
       </c>
       <c r="L67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M67" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3223,7 +3205,7 @@
         <v>14</v>
       </c>
       <c r="L68" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s">
         <v>35</v>
@@ -3237,10 +3219,10 @@
         <v>8</v>
       </c>
       <c r="L69" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M69" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3248,16 +3230,16 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="I70" t="s">
         <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3268,10 +3250,10 @@
         <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3282,10 +3264,10 @@
         <v>8</v>
       </c>
       <c r="L72" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3296,10 +3278,10 @@
         <v>8</v>
       </c>
       <c r="L73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M73" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3307,16 +3289,16 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="I74" t="s">
         <v>8</v>
       </c>
       <c r="L74" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3327,10 +3309,10 @@
         <v>8</v>
       </c>
       <c r="L75" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3341,10 +3323,10 @@
         <v>8</v>
       </c>
       <c r="L76" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M76" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3355,10 +3337,10 @@
         <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M77" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3369,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="L78" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M78" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3380,13 +3362,13 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="I79" t="s">
         <v>8</v>
       </c>
       <c r="L79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M79" t="s">
         <v>22</v>
@@ -3400,10 +3382,10 @@
         <v>8</v>
       </c>
       <c r="L80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3414,10 +3396,10 @@
         <v>8</v>
       </c>
       <c r="L81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3425,13 +3407,13 @@
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="I82" t="s">
         <v>8</v>
       </c>
       <c r="L82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M82" t="s">
         <v>22</v>
@@ -3445,10 +3427,10 @@
         <v>8</v>
       </c>
       <c r="L83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3459,10 +3441,10 @@
         <v>8</v>
       </c>
       <c r="L84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3473,10 +3455,10 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3484,10 +3466,10 @@
         <v>14</v>
       </c>
       <c r="L86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3495,10 +3477,10 @@
         <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3509,10 +3491,10 @@
         <v>8</v>
       </c>
       <c r="L88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3523,10 +3505,10 @@
         <v>8</v>
       </c>
       <c r="L89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3534,16 +3516,16 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="I90" t="s">
         <v>8</v>
       </c>
       <c r="L90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3554,10 +3536,10 @@
         <v>8</v>
       </c>
       <c r="L91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3568,10 +3550,10 @@
         <v>8</v>
       </c>
       <c r="L92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3582,10 +3564,10 @@
         <v>8</v>
       </c>
       <c r="L93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3593,16 +3575,16 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="I94" t="s">
         <v>8</v>
       </c>
       <c r="L94" t="s">
+        <v>177</v>
+      </c>
+      <c r="M94" t="s">
         <v>178</v>
-      </c>
-      <c r="M94" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3613,10 +3595,10 @@
         <v>8</v>
       </c>
       <c r="L95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M95" t="s">
         <v>180</v>
-      </c>
-      <c r="M95" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3627,10 +3609,10 @@
         <v>8</v>
       </c>
       <c r="L96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3641,10 +3623,10 @@
         <v>8</v>
       </c>
       <c r="L97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3655,10 +3637,10 @@
         <v>8</v>
       </c>
       <c r="L98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3666,10 +3648,10 @@
         <v>14</v>
       </c>
       <c r="L99" t="s">
+        <v>184</v>
+      </c>
+      <c r="M99" t="s">
         <v>185</v>
-      </c>
-      <c r="M99" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3680,10 +3662,10 @@
         <v>8</v>
       </c>
       <c r="L100" t="s">
+        <v>186</v>
+      </c>
+      <c r="M100" t="s">
         <v>187</v>
-      </c>
-      <c r="M100" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3691,16 +3673,16 @@
         <v>3</v>
       </c>
       <c r="H101" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I101" t="s">
         <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3711,10 +3693,10 @@
         <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3725,10 +3707,10 @@
         <v>8</v>
       </c>
       <c r="L103" t="s">
+        <v>190</v>
+      </c>
+      <c r="M103" t="s">
         <v>191</v>
-      </c>
-      <c r="M103" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3739,10 +3721,10 @@
         <v>8</v>
       </c>
       <c r="L104" t="s">
+        <v>192</v>
+      </c>
+      <c r="M104" t="s">
         <v>193</v>
-      </c>
-      <c r="M104" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3750,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="I105" t="s">
         <v>8</v>
@@ -3759,7 +3741,7 @@
         <v>195</v>
       </c>
       <c r="M105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3773,7 +3755,7 @@
         <v>196</v>
       </c>
       <c r="M106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3787,7 +3769,7 @@
         <v>197</v>
       </c>
       <c r="M107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3843,7 +3825,7 @@
         <v>204</v>
       </c>
       <c r="M111" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3865,13 +3847,13 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
+        <v>156</v>
+      </c>
+      <c r="I113" t="s">
+        <v>8</v>
+      </c>
+      <c r="L113" t="s">
         <v>207</v>
-      </c>
-      <c r="I113" t="s">
-        <v>8</v>
-      </c>
-      <c r="L113" t="s">
-        <v>208</v>
       </c>
       <c r="M113" t="s">
         <v>206</v>
@@ -3885,7 +3867,7 @@
         <v>8</v>
       </c>
       <c r="L114" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M114" t="s">
         <v>206</v>
@@ -3899,10 +3881,10 @@
         <v>8</v>
       </c>
       <c r="L115" t="s">
+        <v>209</v>
+      </c>
+      <c r="M115" t="s">
         <v>210</v>
-      </c>
-      <c r="M115" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3910,13 +3892,13 @@
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I116" t="s">
         <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M116" t="s">
         <v>22</v>
@@ -3927,10 +3909,10 @@
         <v>14</v>
       </c>
       <c r="L117" t="s">
+        <v>212</v>
+      </c>
+      <c r="M117" t="s">
         <v>213</v>
-      </c>
-      <c r="M117" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3938,10 +3920,10 @@
         <v>14</v>
       </c>
       <c r="L118" t="s">
+        <v>214</v>
+      </c>
+      <c r="M118" t="s">
         <v>215</v>
-      </c>
-      <c r="M118" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3952,7 +3934,7 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M119" t="s">
         <v>22</v>
@@ -3963,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I120" t="s">
         <v>8</v>
@@ -4011,7 +3993,7 @@
         <v>222</v>
       </c>
       <c r="M123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4033,13 +4015,13 @@
         <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="I125" t="s">
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M125" t="s">
         <v>224</v>
@@ -4053,10 +4035,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4067,10 +4049,10 @@
         <v>8</v>
       </c>
       <c r="L127" t="s">
+        <v>229</v>
+      </c>
+      <c r="M127" t="s">
         <v>228</v>
-      </c>
-      <c r="M127" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4081,10 +4063,10 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4092,16 +4074,16 @@
         <v>3</v>
       </c>
       <c r="H129" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="I129" t="s">
         <v>8</v>
       </c>
       <c r="L129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4112,10 +4094,10 @@
         <v>8</v>
       </c>
       <c r="L130" t="s">
+        <v>233</v>
+      </c>
+      <c r="M130" t="s">
         <v>232</v>
-      </c>
-      <c r="M130" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4126,10 +4108,10 @@
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4140,10 +4122,10 @@
         <v>8</v>
       </c>
       <c r="L132" t="s">
+        <v>236</v>
+      </c>
+      <c r="M132" t="s">
         <v>235</v>
-      </c>
-      <c r="M132" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4151,13 +4133,13 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -4166,10 +4148,10 @@
         <v>8</v>
       </c>
       <c r="L133" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4180,10 +4162,10 @@
         <v>8</v>
       </c>
       <c r="L134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4194,10 +4176,10 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
+        <v>243</v>
+      </c>
+      <c r="M135" t="s">
         <v>242</v>
-      </c>
-      <c r="M135" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4208,10 +4190,10 @@
         <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M136" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4219,22 +4201,22 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H137" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="I137" t="s">
         <v>8</v>
       </c>
       <c r="L137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M137" t="s">
         <v>22</v>
@@ -4248,10 +4230,10 @@
         <v>8</v>
       </c>
       <c r="L138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4259,22 +4241,22 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C139" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I139" t="s">
         <v>8</v>
       </c>
       <c r="L139" t="s">
+        <v>250</v>
+      </c>
+      <c r="M139" t="s">
         <v>248</v>
-      </c>
-      <c r="M139" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4282,22 +4264,22 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C140" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I140" t="s">
         <v>8</v>
       </c>
       <c r="L140" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M140" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4305,16 +4287,16 @@
         <v>3</v>
       </c>
       <c r="H141" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I141" t="s">
         <v>8</v>
       </c>
       <c r="L141" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M141" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4325,10 +4307,10 @@
         <v>8</v>
       </c>
       <c r="L142" t="s">
+        <v>255</v>
+      </c>
+      <c r="M142" t="s">
         <v>254</v>
-      </c>
-      <c r="M142" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4336,22 +4318,22 @@
         <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C143" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I143" t="s">
         <v>8</v>
       </c>
       <c r="L143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4362,10 +4344,10 @@
         <v>8</v>
       </c>
       <c r="L144" t="s">
+        <v>259</v>
+      </c>
+      <c r="M144" t="s">
         <v>258</v>
-      </c>
-      <c r="M144" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4373,7 +4355,7 @@
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="I145" t="s">
         <v>8</v>
@@ -4396,7 +4378,7 @@
         <v>262</v>
       </c>
       <c r="D146" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I146" t="s">
         <v>8</v>
@@ -4413,22 +4395,22 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C147" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D147" t="s">
+        <v>238</v>
+      </c>
+      <c r="I147" t="s">
+        <v>8</v>
+      </c>
+      <c r="L147" t="s">
         <v>265</v>
       </c>
-      <c r="I147" t="s">
-        <v>8</v>
-      </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>266</v>
-      </c>
-      <c r="M147" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4436,13 +4418,13 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
+        <v>267</v>
+      </c>
+      <c r="C148" t="s">
+        <v>267</v>
+      </c>
+      <c r="D148" t="s">
         <v>268</v>
-      </c>
-      <c r="C148" t="s">
-        <v>268</v>
-      </c>
-      <c r="D148" t="s">
-        <v>265</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
@@ -4459,25 +4441,25 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C149" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D149" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H149" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" t="s">
+        <v>8</v>
+      </c>
+      <c r="L149" t="s">
         <v>271</v>
       </c>
-      <c r="I149" t="s">
-        <v>8</v>
-      </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>272</v>
-      </c>
-      <c r="M149" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4488,10 +4470,10 @@
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M150" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4499,22 +4481,22 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" t="s">
+        <v>274</v>
+      </c>
+      <c r="D151" t="s">
+        <v>268</v>
+      </c>
+      <c r="I151" t="s">
+        <v>8</v>
+      </c>
+      <c r="L151" t="s">
         <v>275</v>
       </c>
-      <c r="C151" t="s">
-        <v>275</v>
-      </c>
-      <c r="D151" t="s">
-        <v>265</v>
-      </c>
-      <c r="I151" t="s">
-        <v>8</v>
-      </c>
-      <c r="L151" t="s">
-        <v>276</v>
-      </c>
       <c r="M151" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4525,10 +4507,10 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4536,19 +4518,19 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" t="s">
+        <v>277</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
         <v>278</v>
       </c>
-      <c r="C153" t="s">
+      <c r="F153" t="s">
         <v>278</v>
-      </c>
-      <c r="D153" t="s">
-        <v>3</v>
-      </c>
-      <c r="E153" t="s">
-        <v>279</v>
-      </c>
-      <c r="F153" t="s">
-        <v>279</v>
       </c>
       <c r="G153" t="s">
         <v>6</v>
@@ -4557,10 +4539,10 @@
         <v>8</v>
       </c>
       <c r="L153" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M153" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4568,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="H154" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="I154" t="s">
         <v>8</v>
@@ -4617,19 +4599,19 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
+        <v>283</v>
+      </c>
+      <c r="C156" t="s">
+        <v>283</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
         <v>286</v>
       </c>
-      <c r="C156" t="s">
+      <c r="F156" t="s">
         <v>286</v>
-      </c>
-      <c r="D156" t="s">
-        <v>3</v>
-      </c>
-      <c r="E156" t="s">
-        <v>262</v>
-      </c>
-      <c r="F156" t="s">
-        <v>262</v>
       </c>
       <c r="G156" t="s">
         <v>6</v>
@@ -4649,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I157" t="s">
         <v>8</v>
@@ -4689,10 +4671,10 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F159" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G159" t="s">
         <v>6</v>
@@ -4701,10 +4683,10 @@
         <v>8</v>
       </c>
       <c r="L159" t="s">
+        <v>291</v>
+      </c>
+      <c r="M159" t="s">
         <v>292</v>
-      </c>
-      <c r="M159" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -4715,10 +4697,10 @@
         <v>8</v>
       </c>
       <c r="L160" t="s">
+        <v>293</v>
+      </c>
+      <c r="M160" t="s">
         <v>294</v>
-      </c>
-      <c r="M160" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -4729,10 +4711,10 @@
         <v>8</v>
       </c>
       <c r="L161" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M161" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -4740,10 +4722,10 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C162" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
@@ -4758,7 +4740,7 @@
         <v>6</v>
       </c>
       <c r="H162" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I162" t="s">
         <v>8</v>
@@ -4830,10 +4812,10 @@
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F165" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="G165" t="s">
         <v>6</v>
@@ -4842,7 +4824,7 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M165" t="s">
         <v>299</v>
@@ -4853,16 +4835,16 @@
         <v>3</v>
       </c>
       <c r="H166" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I166" t="s">
         <v>8</v>
       </c>
       <c r="L166" t="s">
+        <v>306</v>
+      </c>
+      <c r="M166" t="s">
         <v>307</v>
-      </c>
-      <c r="M166" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -4870,19 +4852,19 @@
         <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="C167" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F167" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="G167" t="s">
         <v>6</v>
@@ -4891,10 +4873,10 @@
         <v>8</v>
       </c>
       <c r="L167" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M167" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -4902,19 +4884,19 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="F168" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="G168" t="s">
         <v>6</v>
@@ -4940,7 +4922,7 @@
         <v>314</v>
       </c>
       <c r="M169" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -4962,34 +4944,34 @@
         <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C171" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="F171" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="G171" t="s">
         <v>6</v>
       </c>
       <c r="H171" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="I171" t="s">
         <v>8</v>
       </c>
       <c r="L171" t="s">
+        <v>317</v>
+      </c>
+      <c r="M171" t="s">
         <v>318</v>
-      </c>
-      <c r="M171" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -4997,10 +4979,10 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
+        <v>319</v>
+      </c>
+      <c r="M172" t="s">
         <v>320</v>
-      </c>
-      <c r="M172" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -5011,10 +4993,10 @@
         <v>8</v>
       </c>
       <c r="L173" t="s">
+        <v>321</v>
+      </c>
+      <c r="M173" t="s">
         <v>322</v>
-      </c>
-      <c r="M173" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -5025,10 +5007,10 @@
         <v>8</v>
       </c>
       <c r="L174" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M174" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -5036,31 +5018,31 @@
         <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C175" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F175" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="G175" t="s">
         <v>6</v>
       </c>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="I175" t="s">
         <v>8</v>
       </c>
       <c r="L175" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M175" t="s">
         <v>22</v>
@@ -5074,7 +5056,7 @@
         <v>8</v>
       </c>
       <c r="L176" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M176" t="s">
         <v>22</v>
@@ -5085,19 +5067,19 @@
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="C177" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F177" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G177" t="s">
         <v>6</v>
@@ -5106,10 +5088,10 @@
         <v>8</v>
       </c>
       <c r="L177" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M177" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -5117,31 +5099,31 @@
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="C178" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G178" t="s">
         <v>6</v>
       </c>
       <c r="H178" t="s">
-        <v>56</v>
+        <v>332</v>
       </c>
       <c r="I178" t="s">
         <v>8</v>
       </c>
       <c r="L178" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M178" t="s">
         <v>22</v>
@@ -5152,7 +5134,7 @@
         <v>14</v>
       </c>
       <c r="L179" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M179" t="s">
         <v>22</v>
@@ -5163,10 +5145,10 @@
         <v>14</v>
       </c>
       <c r="L180" t="s">
+        <v>335</v>
+      </c>
+      <c r="M180" t="s">
         <v>336</v>
-      </c>
-      <c r="M180" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -5177,7 +5159,7 @@
         <v>8</v>
       </c>
       <c r="L181" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M181" t="s">
         <v>22</v>
@@ -5191,10 +5173,10 @@
         <v>8</v>
       </c>
       <c r="L182" t="s">
+        <v>338</v>
+      </c>
+      <c r="M182" t="s">
         <v>339</v>
-      </c>
-      <c r="M182" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -5202,31 +5184,31 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C183" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G183" t="s">
         <v>6</v>
       </c>
       <c r="H183" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
       <c r="I183" t="s">
         <v>8</v>
       </c>
       <c r="L183" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M183" t="s">
         <v>22</v>
@@ -5240,7 +5222,7 @@
         <v>8</v>
       </c>
       <c r="L184" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M184" t="s">
         <v>22</v>
@@ -5251,19 +5233,19 @@
         <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C185" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F185" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G185" t="s">
         <v>6</v>
@@ -5272,10 +5254,10 @@
         <v>8</v>
       </c>
       <c r="L185" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M185" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -5286,10 +5268,10 @@
         <v>8</v>
       </c>
       <c r="L186" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M186" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -5300,10 +5282,10 @@
         <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M187" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -5311,34 +5293,34 @@
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="C188" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="F188" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G188" t="s">
         <v>6</v>
       </c>
       <c r="H188" t="s">
+        <v>351</v>
+      </c>
+      <c r="I188" t="s">
+        <v>8</v>
+      </c>
+      <c r="L188" t="s">
         <v>352</v>
       </c>
-      <c r="I188" t="s">
-        <v>8</v>
-      </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>353</v>
-      </c>
-      <c r="M188" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -5346,19 +5328,19 @@
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="C189" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F189" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G189" t="s">
         <v>6</v>
@@ -5367,10 +5349,10 @@
         <v>8</v>
       </c>
       <c r="L189" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M189" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -5378,16 +5360,16 @@
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="I190" t="s">
         <v>8</v>
       </c>
       <c r="L190" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M190" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -5395,19 +5377,19 @@
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C191" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="G191" t="s">
         <v>6</v>
@@ -5416,10 +5398,10 @@
         <v>8</v>
       </c>
       <c r="L191" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M191" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -5430,10 +5412,10 @@
         <v>8</v>
       </c>
       <c r="L192" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M192" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -5441,16 +5423,16 @@
         <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I193" t="s">
         <v>8</v>
       </c>
       <c r="L193" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M193" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -5458,19 +5440,19 @@
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="C194" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="F194" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="G194" t="s">
         <v>6</v>
@@ -5479,10 +5461,10 @@
         <v>8</v>
       </c>
       <c r="L194" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M194" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -5493,10 +5475,10 @@
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M195" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -5504,19 +5486,19 @@
         <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="C196" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="F196" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="G196" t="s">
         <v>6</v>
@@ -5525,7 +5507,7 @@
         <v>8</v>
       </c>
       <c r="L196" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M196" t="s">
         <v>22</v>
@@ -5536,16 +5518,16 @@
         <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="I197" t="s">
         <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M197" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -5556,7 +5538,7 @@
         <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M198" t="s">
         <v>22</v>
@@ -5567,19 +5549,19 @@
         <v>1</v>
       </c>
       <c r="B199" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C199" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="F199" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="G199" t="s">
         <v>6</v>
@@ -5588,10 +5570,10 @@
         <v>8</v>
       </c>
       <c r="L199" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M199" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -5602,10 +5584,10 @@
         <v>8</v>
       </c>
       <c r="L200" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M200" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -5613,31 +5595,31 @@
         <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C201" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="F201" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="G201" t="s">
         <v>6</v>
       </c>
       <c r="H201" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I201" t="s">
         <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M201" t="s">
         <v>22</v>
@@ -5648,19 +5630,19 @@
         <v>1</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="C202" t="s">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F202" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G202" t="s">
         <v>6</v>
@@ -5669,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="L202" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M202" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -5683,10 +5665,10 @@
         <v>8</v>
       </c>
       <c r="L203" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M203" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -5697,10 +5679,10 @@
         <v>8</v>
       </c>
       <c r="L204" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M204" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -5708,19 +5690,19 @@
         <v>1</v>
       </c>
       <c r="B205" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="C205" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G205" t="s">
         <v>6</v>
@@ -5729,10 +5711,10 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M205" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -5740,16 +5722,16 @@
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="I206" t="s">
         <v>8</v>
       </c>
       <c r="L206" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M206" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -5760,10 +5742,10 @@
         <v>8</v>
       </c>
       <c r="L207" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M207" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -5771,19 +5753,19 @@
         <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>268</v>
+        <v>388</v>
       </c>
       <c r="C208" t="s">
-        <v>268</v>
+        <v>388</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F208" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G208" t="s">
         <v>6</v>
@@ -5792,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="L208" t="s">
+        <v>389</v>
+      </c>
+      <c r="M208" t="s">
         <v>390</v>
-      </c>
-      <c r="M208" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -5803,7 +5785,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>259</v>
+        <v>391</v>
       </c>
       <c r="I209" t="s">
         <v>8</v>
@@ -5826,7 +5808,7 @@
         <v>393</v>
       </c>
       <c r="M210" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -5843,10 +5825,10 @@
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="F211" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="G211" t="s">
         <v>6</v>
@@ -5858,7 +5840,7 @@
         <v>395</v>
       </c>
       <c r="M211" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -5866,19 +5848,19 @@
         <v>1</v>
       </c>
       <c r="B212" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="C212" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>396</v>
+        <v>274</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>274</v>
       </c>
       <c r="G212" t="s">
         <v>6</v>
@@ -5898,7 +5880,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I213" t="s">
         <v>8</v>
@@ -5915,19 +5897,19 @@
         <v>1</v>
       </c>
       <c r="B214" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C214" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F214" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G214" t="s">
         <v>6</v>
@@ -5936,7 +5918,7 @@
         <v>8</v>
       </c>
       <c r="L214" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M214" t="s">
         <v>22</v>
@@ -5950,10 +5932,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
+        <v>401</v>
+      </c>
+      <c r="M215" t="s">
         <v>402</v>
-      </c>
-      <c r="M215" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -5961,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="H216" t="s">
-        <v>130</v>
+        <v>403</v>
       </c>
       <c r="I216" t="s">
         <v>8</v>
@@ -5978,19 +5960,19 @@
         <v>1</v>
       </c>
       <c r="B217" t="s">
+        <v>286</v>
+      </c>
+      <c r="C217" t="s">
+        <v>286</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" t="s">
         <v>405</v>
       </c>
-      <c r="C217" t="s">
+      <c r="F217" t="s">
         <v>405</v>
-      </c>
-      <c r="D217" t="s">
-        <v>3</v>
-      </c>
-      <c r="E217" t="s">
-        <v>326</v>
-      </c>
-      <c r="F217" t="s">
-        <v>326</v>
       </c>
       <c r="G217" t="s">
         <v>6</v>
@@ -6010,7 +5992,7 @@
         <v>3</v>
       </c>
       <c r="H218" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I218" t="s">
         <v>8</v>
@@ -6027,19 +6009,19 @@
         <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C219" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="F219" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="G219" t="s">
         <v>6</v>
@@ -6073,19 +6055,19 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="C221" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="F221" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="G221" t="s">
         <v>6</v>
@@ -6094,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="L221" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M221" t="s">
         <v>410</v>
@@ -6105,7 +6087,7 @@
         <v>14</v>
       </c>
       <c r="L222" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M222" t="s">
         <v>410</v>
@@ -6116,10 +6098,10 @@
         <v>14</v>
       </c>
       <c r="L223" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -6130,10 +6112,10 @@
         <v>8</v>
       </c>
       <c r="L224" t="s">
+        <v>414</v>
+      </c>
+      <c r="M224" t="s">
         <v>415</v>
-      </c>
-      <c r="M224" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -6141,34 +6123,34 @@
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>417</v>
+        <v>330</v>
       </c>
       <c r="C225" t="s">
-        <v>417</v>
+        <v>330</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="F225" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="G225" t="s">
         <v>6</v>
       </c>
       <c r="H225" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="I225" t="s">
         <v>8</v>
       </c>
       <c r="L225" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M225" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -6179,10 +6161,10 @@
         <v>8</v>
       </c>
       <c r="L226" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M226" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -6190,19 +6172,19 @@
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C227" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="F227" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="G227" t="s">
         <v>6</v>
@@ -6211,10 +6193,10 @@
         <v>8</v>
       </c>
       <c r="L227" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M227" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -6222,19 +6204,19 @@
         <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C228" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>341</v>
+        <v>422</v>
       </c>
       <c r="F228" t="s">
-        <v>341</v>
+        <v>422</v>
       </c>
       <c r="G228" t="s">
         <v>6</v>
@@ -6243,10 +6225,10 @@
         <v>8</v>
       </c>
       <c r="L228" t="s">
+        <v>423</v>
+      </c>
+      <c r="M228" t="s">
         <v>424</v>
-      </c>
-      <c r="M228" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -6257,10 +6239,10 @@
         <v>8</v>
       </c>
       <c r="L229" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M229" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -6268,13 +6250,13 @@
         <v>3</v>
       </c>
       <c r="H230" t="s">
+        <v>426</v>
+      </c>
+      <c r="I230" t="s">
+        <v>8</v>
+      </c>
+      <c r="L230" t="s">
         <v>427</v>
-      </c>
-      <c r="I230" t="s">
-        <v>8</v>
-      </c>
-      <c r="L230" t="s">
-        <v>428</v>
       </c>
       <c r="M230" t="s">
         <v>22</v>
@@ -6285,19 +6267,19 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="C231" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
       </c>
       <c r="E231" t="s">
-        <v>268</v>
+        <v>420</v>
       </c>
       <c r="F231" t="s">
-        <v>268</v>
+        <v>420</v>
       </c>
       <c r="G231" t="s">
         <v>6</v>
@@ -6317,7 +6299,7 @@
         <v>3</v>
       </c>
       <c r="H232" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="I232" t="s">
         <v>8</v>
@@ -6348,25 +6330,25 @@
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="C234" t="s">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
       </c>
       <c r="H234" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I234" t="s">
         <v>8</v>
       </c>
       <c r="L234" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M234" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -6377,7 +6359,7 @@
         <v>8</v>
       </c>
       <c r="L235" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M235" t="s">
         <v>22</v>
@@ -6388,19 +6370,19 @@
         <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>436</v>
+        <v>256</v>
       </c>
       <c r="C236" t="s">
-        <v>436</v>
+        <v>256</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="F236" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="G236" t="s">
         <v>6</v>
@@ -6409,7 +6391,7 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M236" t="s">
         <v>22</v>
@@ -6423,10 +6405,10 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
+        <v>438</v>
+      </c>
+      <c r="M237" t="s">
         <v>439</v>
-      </c>
-      <c r="M237" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -6434,19 +6416,19 @@
         <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>441</v>
+        <v>324</v>
       </c>
       <c r="C238" t="s">
-        <v>441</v>
+        <v>324</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="F238" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="G238" t="s">
         <v>6</v>
@@ -6455,10 +6437,10 @@
         <v>8</v>
       </c>
       <c r="L238" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M238" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -6469,10 +6451,10 @@
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M239" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -6480,34 +6462,34 @@
         <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="C240" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="F240" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="G240" t="s">
         <v>6</v>
       </c>
       <c r="H240" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I240" t="s">
         <v>8</v>
       </c>
       <c r="L240" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M240" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -6518,10 +6500,10 @@
         <v>8</v>
       </c>
       <c r="L241" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M241" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -6532,10 +6514,10 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M242" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -6543,19 +6525,19 @@
         <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>451</v>
+        <v>304</v>
       </c>
       <c r="C243" t="s">
-        <v>451</v>
+        <v>304</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="F243" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="G243" t="s">
         <v>6</v>
@@ -6564,10 +6546,10 @@
         <v>8</v>
       </c>
       <c r="L243" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M243" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -6575,10 +6557,10 @@
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>454</v>
+        <v>282</v>
       </c>
       <c r="F244" t="s">
-        <v>454</v>
+        <v>282</v>
       </c>
       <c r="G244" t="s">
         <v>6</v>
@@ -6587,10 +6569,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M244" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -6598,16 +6580,16 @@
         <v>28</v>
       </c>
       <c r="H245" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I245" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L245" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M245" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -6615,10 +6597,10 @@
         <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="F246" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="G246" t="s">
         <v>6</v>
@@ -6627,10 +6609,10 @@
         <v>8</v>
       </c>
       <c r="L246" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M246" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -6638,16 +6620,16 @@
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="I247" t="s">
         <v>8</v>
       </c>
       <c r="L247" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M247" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -6655,19 +6637,19 @@
         <v>1</v>
       </c>
       <c r="B248" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="C248" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>464</v>
+        <v>330</v>
       </c>
       <c r="F248" t="s">
-        <v>464</v>
+        <v>330</v>
       </c>
       <c r="G248" t="s">
         <v>6</v>
@@ -6676,7 +6658,7 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M248" t="s">
         <v>22</v>
@@ -6690,7 +6672,7 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M249" t="s">
         <v>22</v>
@@ -6701,19 +6683,19 @@
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>451</v>
+        <v>282</v>
       </c>
       <c r="C250" t="s">
-        <v>451</v>
+        <v>282</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="F250" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="G250" t="s">
         <v>6</v>
@@ -6722,10 +6704,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M250" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -6733,34 +6715,34 @@
         <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
       <c r="C251" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="F251" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="G251" t="s">
         <v>6</v>
       </c>
       <c r="H251" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="I251" t="s">
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M251" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -6771,7 +6753,7 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M252" t="s">
         <v>22</v>
@@ -6782,19 +6764,19 @@
         <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C253" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
       </c>
       <c r="E253" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="F253" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="G253" t="s">
         <v>6</v>
@@ -6803,10 +6785,10 @@
         <v>8</v>
       </c>
       <c r="L253" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M253" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -6817,10 +6799,10 @@
         <v>8</v>
       </c>
       <c r="L254" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M254" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -6828,25 +6810,25 @@
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>476</v>
+        <v>277</v>
       </c>
       <c r="C255" t="s">
-        <v>476</v>
+        <v>277</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
       </c>
       <c r="H255" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I255" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L255" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M255" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -6854,10 +6836,10 @@
         <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>317</v>
+        <v>382</v>
       </c>
       <c r="F256" t="s">
-        <v>317</v>
+        <v>382</v>
       </c>
       <c r="G256" t="s">
         <v>6</v>
@@ -6866,10 +6848,10 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M256" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -6877,10 +6859,10 @@
         <v>14</v>
       </c>
       <c r="L257" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M257" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -6888,10 +6870,10 @@
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M258" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -6899,16 +6881,16 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>207</v>
+        <v>478</v>
       </c>
       <c r="I259" t="s">
         <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M259" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -6919,10 +6901,10 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M260" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -6930,19 +6912,19 @@
         <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="C261" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="F261" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="G261" t="s">
         <v>6</v>
@@ -6951,10 +6933,10 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M261" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -6965,10 +6947,10 @@
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M262" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -6976,19 +6958,19 @@
         <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>379</v>
+        <v>237</v>
       </c>
       <c r="C263" t="s">
-        <v>379</v>
+        <v>237</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>245</v>
       </c>
       <c r="F263" t="s">
-        <v>489</v>
+        <v>245</v>
       </c>
       <c r="G263" t="s">
         <v>6</v>
@@ -6997,10 +6979,10 @@
         <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M263" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -7008,19 +6990,19 @@
         <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C264" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="F264" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="G264" t="s">
         <v>6</v>
@@ -7029,10 +7011,10 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M264" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -7040,13 +7022,13 @@
         <v>3</v>
       </c>
       <c r="H265" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="I265" t="s">
         <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M265" t="s">
         <v>22</v>
@@ -7057,19 +7039,19 @@
         <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>489</v>
+        <v>300</v>
       </c>
       <c r="C266" t="s">
-        <v>489</v>
+        <v>300</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="F266" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="G266" t="s">
         <v>6</v>
@@ -7078,7 +7060,7 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M266" t="s">
         <v>22</v>
@@ -7092,7 +7074,7 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M267" t="s">
         <v>22</v>
@@ -7103,19 +7085,19 @@
         <v>1</v>
       </c>
       <c r="B268" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="C268" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>283</v>
+        <v>491</v>
       </c>
       <c r="F268" t="s">
-        <v>283</v>
+        <v>491</v>
       </c>
       <c r="G268" t="s">
         <v>6</v>
@@ -7124,10 +7106,10 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M268" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -7135,16 +7117,16 @@
         <v>3</v>
       </c>
       <c r="H269" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I269" t="s">
         <v>8</v>
       </c>
       <c r="L269" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M269" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -7152,19 +7134,19 @@
         <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C270" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>502</v>
+        <v>324</v>
       </c>
       <c r="F270" t="s">
-        <v>502</v>
+        <v>324</v>
       </c>
       <c r="G270" t="s">
         <v>6</v>
@@ -7173,7 +7155,7 @@
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M270" t="s">
         <v>22</v>
@@ -7184,19 +7166,19 @@
         <v>1</v>
       </c>
       <c r="B271" t="s">
-        <v>286</v>
+        <v>499</v>
       </c>
       <c r="C271" t="s">
-        <v>286</v>
+        <v>499</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
       </c>
       <c r="E271" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="F271" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G271" t="s">
         <v>6</v>
@@ -7205,10 +7187,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M271" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -7219,10 +7201,10 @@
         <v>8</v>
       </c>
       <c r="L272" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M272" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -7230,19 +7212,19 @@
         <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="C273" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>301</v>
+        <v>505</v>
       </c>
       <c r="F273" t="s">
-        <v>301</v>
+        <v>505</v>
       </c>
       <c r="G273" t="s">
         <v>6</v>
@@ -7251,10 +7233,10 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M273" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -7262,16 +7244,16 @@
         <v>3</v>
       </c>
       <c r="H274" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="I274" t="s">
         <v>8</v>
       </c>
       <c r="L274" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M274" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -7279,19 +7261,19 @@
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>446</v>
+        <v>283</v>
       </c>
       <c r="C275" t="s">
-        <v>446</v>
+        <v>283</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
       </c>
       <c r="E275" t="s">
-        <v>469</v>
+        <v>331</v>
       </c>
       <c r="F275" t="s">
-        <v>469</v>
+        <v>331</v>
       </c>
       <c r="G275" t="s">
         <v>6</v>
@@ -7300,10 +7282,10 @@
         <v>8</v>
       </c>
       <c r="L275" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M275" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -7314,10 +7296,10 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M276" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -7325,34 +7307,34 @@
         <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="C277" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
       </c>
       <c r="E277" t="s">
-        <v>436</v>
+        <v>237</v>
       </c>
       <c r="F277" t="s">
-        <v>436</v>
+        <v>237</v>
       </c>
       <c r="G277" t="s">
         <v>6</v>
       </c>
       <c r="H277" t="s">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="I277" t="s">
         <v>8</v>
       </c>
       <c r="L277" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M277" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -7360,19 +7342,19 @@
         <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="C278" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
       </c>
       <c r="E278" t="s">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="F278" t="s">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="G278" t="s">
         <v>6</v>
@@ -7381,10 +7363,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M278" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -7395,10 +7377,10 @@
         <v>8</v>
       </c>
       <c r="L279" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M279" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -7406,19 +7388,19 @@
         <v>1</v>
       </c>
       <c r="B280" t="s">
-        <v>518</v>
+        <v>330</v>
       </c>
       <c r="C280" t="s">
-        <v>518</v>
+        <v>330</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
       </c>
       <c r="E280" t="s">
-        <v>501</v>
+        <v>256</v>
       </c>
       <c r="F280" t="s">
-        <v>501</v>
+        <v>256</v>
       </c>
       <c r="G280" t="s">
         <v>6</v>
@@ -7427,10 +7409,10 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M280" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -7441,10 +7423,10 @@
         <v>8</v>
       </c>
       <c r="L281" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M281" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -7452,13 +7434,13 @@
         <v>3</v>
       </c>
       <c r="H282" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="I282" t="s">
         <v>8</v>
       </c>
       <c r="L282" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M282" t="s">
         <v>22</v>
@@ -7469,19 +7451,19 @@
         <v>1</v>
       </c>
       <c r="B283" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="C283" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="F283" t="s">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="G283" t="s">
         <v>6</v>
@@ -7490,7 +7472,7 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M283" t="s">
         <v>22</v>
@@ -7501,25 +7483,25 @@
         <v>1</v>
       </c>
       <c r="B284" t="s">
-        <v>346</v>
+        <v>520</v>
       </c>
       <c r="C284" t="s">
-        <v>346</v>
+        <v>520</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
       </c>
       <c r="H284" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I284" t="s">
         <v>8</v>
       </c>
       <c r="L284" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M284" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -7530,7 +7512,7 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M285" t="s">
         <v>22</v>
@@ -7541,19 +7523,19 @@
         <v>1</v>
       </c>
       <c r="B286" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="C286" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
       </c>
       <c r="E286" t="s">
-        <v>436</v>
+        <v>331</v>
       </c>
       <c r="F286" t="s">
-        <v>436</v>
+        <v>331</v>
       </c>
       <c r="G286" t="s">
         <v>6</v>
@@ -7562,7 +7544,7 @@
         <v>8</v>
       </c>
       <c r="L286" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M286" t="s">
         <v>22</v>
@@ -7573,7 +7555,7 @@
         <v>14</v>
       </c>
       <c r="L287" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M287" t="s">
         <v>22</v>
@@ -7587,10 +7569,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M288" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -7598,19 +7580,19 @@
         <v>1</v>
       </c>
       <c r="B289" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="C289" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
       </c>
       <c r="E289" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="F289" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G289" t="s">
         <v>6</v>
@@ -7619,10 +7601,10 @@
         <v>8</v>
       </c>
       <c r="L289" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M289" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -7630,34 +7612,34 @@
         <v>1</v>
       </c>
       <c r="B290" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="C290" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
       </c>
       <c r="E290" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="F290" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="G290" t="s">
         <v>6</v>
       </c>
       <c r="H290" t="s">
-        <v>427</v>
+        <v>156</v>
       </c>
       <c r="I290" t="s">
         <v>8</v>
       </c>
       <c r="L290" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M290" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -7668,10 +7650,10 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M291" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -7679,19 +7661,19 @@
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C292" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
       </c>
       <c r="E292" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="F292" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="G292" t="s">
         <v>6</v>
@@ -7700,10 +7682,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M292" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -7714,10 +7696,10 @@
         <v>8</v>
       </c>
       <c r="L293" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M293" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -7725,16 +7707,16 @@
         <v>3</v>
       </c>
       <c r="H294" t="s">
-        <v>538</v>
+        <v>217</v>
       </c>
       <c r="I294" t="s">
         <v>8</v>
       </c>
       <c r="L294" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M294" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -7742,19 +7724,19 @@
         <v>1</v>
       </c>
       <c r="B295" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C295" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
       </c>
       <c r="E295" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F295" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G295" t="s">
         <v>6</v>
@@ -7763,10 +7745,10 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M295" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -7774,10 +7756,10 @@
         <v>14</v>
       </c>
       <c r="L296" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M296" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -7788,10 +7770,10 @@
         <v>8</v>
       </c>
       <c r="L297" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M297" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -7799,19 +7781,19 @@
         <v>1</v>
       </c>
       <c r="B298" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="C298" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
       </c>
       <c r="E298" t="s">
-        <v>545</v>
+        <v>249</v>
       </c>
       <c r="F298" t="s">
-        <v>545</v>
+        <v>249</v>
       </c>
       <c r="G298" t="s">
         <v>6</v>
@@ -7820,10 +7802,10 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M298" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -7831,19 +7813,19 @@
         <v>1</v>
       </c>
       <c r="B299" t="s">
-        <v>279</v>
+        <v>543</v>
       </c>
       <c r="C299" t="s">
-        <v>279</v>
+        <v>543</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
       </c>
       <c r="E299" t="s">
-        <v>547</v>
+        <v>249</v>
       </c>
       <c r="F299" t="s">
-        <v>547</v>
+        <v>249</v>
       </c>
       <c r="G299" t="s">
         <v>6</v>
@@ -7852,10 +7834,10 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M299" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -7863,16 +7845,16 @@
         <v>3</v>
       </c>
       <c r="H300" t="s">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="I300" t="s">
         <v>8</v>
       </c>
       <c r="L300" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M300" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -7880,19 +7862,19 @@
         <v>1</v>
       </c>
       <c r="B301" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
       <c r="C301" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
       </c>
       <c r="E301" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="F301" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="G301" t="s">
         <v>6</v>
@@ -7901,10 +7883,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M301" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -7912,13 +7894,13 @@
         <v>3</v>
       </c>
       <c r="H302" t="s">
-        <v>538</v>
+        <v>27</v>
       </c>
       <c r="I302" t="s">
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M302" t="s">
         <v>22</v>
@@ -7932,7 +7914,7 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="M303" t="s">
         <v>22</v>
@@ -7943,19 +7925,19 @@
         <v>1</v>
       </c>
       <c r="B304" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="C304" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
       </c>
       <c r="E304" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="F304" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="G304" t="s">
         <v>6</v>
@@ -7964,10 +7946,10 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="M304" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -7978,16 +7960,16 @@
         <v>8</v>
       </c>
       <c r="J305" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K305" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L305" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M305" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -7998,7 +7980,7 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M306" t="s">
         <v>22</v>
@@ -8009,10 +7991,10 @@
         <v>1</v>
       </c>
       <c r="E307" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F307" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="G307" t="s">
         <v>6</v>
@@ -8021,10 +8003,10 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M307" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -8032,31 +8014,31 @@
         <v>1</v>
       </c>
       <c r="B308" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C308" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
       </c>
       <c r="E308" t="s">
-        <v>304</v>
+        <v>561</v>
       </c>
       <c r="F308" t="s">
-        <v>304</v>
+        <v>561</v>
       </c>
       <c r="G308" t="s">
         <v>6</v>
       </c>
       <c r="H308" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="I308" t="s">
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M308" t="s">
         <v>22</v>
@@ -8070,10 +8052,10 @@
         <v>8</v>
       </c>
       <c r="L309" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M309" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -8081,19 +8063,19 @@
         <v>1</v>
       </c>
       <c r="B310" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="C310" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>405</v>
+        <v>561</v>
       </c>
       <c r="F310" t="s">
-        <v>405</v>
+        <v>561</v>
       </c>
       <c r="G310" t="s">
         <v>6</v>
@@ -8102,10 +8084,10 @@
         <v>8</v>
       </c>
       <c r="L310" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M310" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -8116,10 +8098,10 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M311" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -8127,16 +8109,16 @@
         <v>3</v>
       </c>
       <c r="H312" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="I312" t="s">
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M312" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -8144,19 +8126,19 @@
         <v>1</v>
       </c>
       <c r="B313" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C313" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
       </c>
       <c r="E313" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F313" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G313" t="s">
         <v>6</v>
@@ -8165,10 +8147,10 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M313" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -8176,19 +8158,19 @@
         <v>1</v>
       </c>
       <c r="B314" t="s">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="C314" t="s">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>574</v>
+        <v>330</v>
       </c>
       <c r="F314" t="s">
-        <v>574</v>
+        <v>330</v>
       </c>
       <c r="G314" t="s">
         <v>6</v>
@@ -8197,10 +8179,10 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M314" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -8211,10 +8193,10 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M315" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -8225,16 +8207,16 @@
         <v>8</v>
       </c>
       <c r="J316" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K316" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L316" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M316" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -8242,19 +8224,19 @@
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C317" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
       </c>
       <c r="E317" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="F317" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="G317" t="s">
         <v>6</v>
@@ -8263,7 +8245,7 @@
         <v>8</v>
       </c>
       <c r="L317" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M317" t="s">
         <v>22</v>
@@ -8277,10 +8259,10 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M318" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -8288,10 +8270,10 @@
         <v>1</v>
       </c>
       <c r="E319" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F319" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G319" t="s">
         <v>6</v>
@@ -8300,10 +8282,10 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M319" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -8311,31 +8293,31 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>297</v>
+        <v>499</v>
       </c>
       <c r="C320" t="s">
-        <v>297</v>
+        <v>499</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F320" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G320" t="s">
         <v>6</v>
       </c>
       <c r="H320" t="s">
-        <v>27</v>
+        <v>426</v>
       </c>
       <c r="I320" t="s">
         <v>8</v>
       </c>
       <c r="L320" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M320" t="s">
         <v>22</v>
@@ -8349,10 +8331,10 @@
         <v>8</v>
       </c>
       <c r="L321" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M321" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -8360,13 +8342,13 @@
         <v>3</v>
       </c>
       <c r="H322" t="s">
-        <v>427</v>
+        <v>156</v>
       </c>
       <c r="I322" t="s">
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M322" t="s">
         <v>22</v>
@@ -8377,19 +8359,19 @@
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>469</v>
+        <v>330</v>
       </c>
       <c r="C323" t="s">
-        <v>469</v>
+        <v>330</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>374</v>
+        <v>282</v>
       </c>
       <c r="F323" t="s">
-        <v>374</v>
+        <v>282</v>
       </c>
       <c r="G323" t="s">
         <v>6</v>
@@ -8398,7 +8380,7 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M323" t="s">
         <v>22</v>
@@ -8412,10 +8394,10 @@
         <v>8</v>
       </c>
       <c r="L324" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M324" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -8423,10 +8405,10 @@
         <v>1</v>
       </c>
       <c r="E325" t="s">
-        <v>411</v>
+        <v>520</v>
       </c>
       <c r="F325" t="s">
-        <v>411</v>
+        <v>520</v>
       </c>
       <c r="G325" t="s">
         <v>6</v>
@@ -8435,10 +8417,10 @@
         <v>8</v>
       </c>
       <c r="L325" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M325" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -8446,13 +8428,13 @@
         <v>3</v>
       </c>
       <c r="H326" t="s">
-        <v>56</v>
+        <v>426</v>
       </c>
       <c r="I326" t="s">
         <v>8</v>
       </c>
       <c r="L326" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M326" t="s">
         <v>22</v>
@@ -8463,10 +8445,10 @@
         <v>1</v>
       </c>
       <c r="E327" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F327" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G327" t="s">
         <v>6</v>
@@ -8475,10 +8457,10 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M327" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -8486,10 +8468,10 @@
         <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>518</v>
+        <v>375</v>
       </c>
       <c r="C328" t="s">
-        <v>518</v>
+        <v>375</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -8498,10 +8480,10 @@
         <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M328" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -8512,10 +8494,10 @@
         <v>8</v>
       </c>
       <c r="L329" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M329" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -8523,25 +8505,25 @@
         <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C330" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
       </c>
       <c r="H330" t="s">
-        <v>598</v>
+        <v>27</v>
       </c>
       <c r="I330" t="s">
         <v>8</v>
       </c>
       <c r="L330" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="M330" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -8552,10 +8534,10 @@
         <v>8</v>
       </c>
       <c r="L331" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M331" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -8566,10 +8548,10 @@
         <v>8</v>
       </c>
       <c r="L332" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M332" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -8577,10 +8559,10 @@
         <v>1</v>
       </c>
       <c r="B333" t="s">
-        <v>604</v>
+        <v>330</v>
       </c>
       <c r="C333" t="s">
-        <v>604</v>
+        <v>330</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -8589,10 +8571,10 @@
         <v>8</v>
       </c>
       <c r="L333" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M333" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -8603,10 +8585,10 @@
         <v>8</v>
       </c>
       <c r="L334" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M334" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -8614,13 +8596,13 @@
         <v>3</v>
       </c>
       <c r="H335" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="I335" t="s">
         <v>8</v>
       </c>
       <c r="L335" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="M335" t="s">
         <v>22</v>
@@ -8631,10 +8613,10 @@
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>608</v>
+        <v>324</v>
       </c>
       <c r="C336" t="s">
-        <v>608</v>
+        <v>324</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -8643,10 +8625,10 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="M336" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -8654,10 +8636,10 @@
         <v>1</v>
       </c>
       <c r="E337" t="s">
-        <v>604</v>
+        <v>505</v>
       </c>
       <c r="F337" t="s">
-        <v>604</v>
+        <v>505</v>
       </c>
       <c r="G337" t="s">
         <v>6</v>
@@ -8666,10 +8648,10 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M337" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -8677,16 +8659,16 @@
         <v>3</v>
       </c>
       <c r="H338" t="s">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="I338" t="s">
         <v>8</v>
       </c>
       <c r="L338" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M338" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -8694,10 +8676,10 @@
         <v>1</v>
       </c>
       <c r="E339" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="F339" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="G339" t="s">
         <v>6</v>
@@ -8706,10 +8688,10 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="M339" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -8717,13 +8699,13 @@
         <v>3</v>
       </c>
       <c r="H340" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="I340" t="s">
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="M340" t="s">
         <v>22</v>
@@ -8734,10 +8716,10 @@
         <v>1</v>
       </c>
       <c r="E341" t="s">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="F341" t="s">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="G341" t="s">
         <v>6</v>
@@ -8746,7 +8728,7 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M341" t="s">
         <v>22</v>
@@ -8757,25 +8739,25 @@
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="C342" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
       </c>
       <c r="H342" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="I342" t="s">
         <v>8</v>
       </c>
       <c r="L342" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="M342" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
